--- a/app/Helpers/Excel/template/t_zaiko_tanaorosi.xlsx
+++ b/app/Helpers/Excel/template/t_zaiko_tanaorosi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp-8.2\htdocs\aichi-kousoku-unyu\app\Helpers\Excel\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AICHI_KOUSOKU_UNYU\git\dev\app\Helpers\Excel\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="棚卸記入表Excel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="打ち合わせメモ２">#REF!</definedName>
     <definedName name="打ち合わせメモ３">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,6 +131,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm;@"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -366,15 +369,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -420,8 +414,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,17 +441,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,6 +451,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -471,8 +474,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -763,22 +766,22 @@
   <dimension ref="A1:CV91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="9.6"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="81" width="2.88671875" style="3" customWidth="1"/>
-    <col min="82" max="83" width="2.6640625" style="3"/>
-    <col min="84" max="84" width="2.6640625" style="3" customWidth="1"/>
-    <col min="85" max="85" width="0.44140625" style="3" customWidth="1"/>
-    <col min="86" max="86" width="2.6640625" style="3" customWidth="1"/>
-    <col min="87" max="88" width="2.6640625" style="3"/>
-    <col min="89" max="89" width="0.44140625" style="3" customWidth="1"/>
-    <col min="90" max="90" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="94" width="2.6640625" style="3"/>
-    <col min="95" max="95" width="0.33203125" style="3" customWidth="1"/>
-    <col min="96" max="16384" width="2.6640625" style="3"/>
+    <col min="1" max="81" width="2.85546875" style="3" customWidth="1"/>
+    <col min="82" max="83" width="2.7109375" style="3"/>
+    <col min="84" max="84" width="2.7109375" style="3" customWidth="1"/>
+    <col min="85" max="85" width="0.42578125" style="3" customWidth="1"/>
+    <col min="86" max="86" width="2.7109375" style="3" customWidth="1"/>
+    <col min="87" max="88" width="2.7109375" style="3"/>
+    <col min="89" max="89" width="0.42578125" style="3" customWidth="1"/>
+    <col min="90" max="90" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="91" max="94" width="2.7109375" style="3"/>
+    <col min="95" max="95" width="0.28515625" style="3" customWidth="1"/>
+    <col min="96" max="16384" width="2.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" s="2" customFormat="1" ht="14.1" customHeight="1">
@@ -805,25 +808,25 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
       <c r="AO1"/>
       <c r="AP1"/>
       <c r="AQ1"/>
@@ -909,23 +912,23 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
       <c r="AO2"/>
       <c r="AP2"/>
       <c r="AQ2"/>
@@ -1011,23 +1014,23 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
       <c r="AO3"/>
       <c r="AP3"/>
       <c r="AQ3"/>
@@ -1042,13 +1045,13 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1"/>
@@ -1096,22 +1099,22 @@
       <c r="D4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1197,23 +1200,23 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1501,19 +1504,19 @@
     </row>
     <row r="8" spans="1:100" ht="14.1" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1528,62 +1531,62 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="32" t="s">
+      <c r="W8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="32" t="s">
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="32" t="s">
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="32" t="s">
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="32" t="s">
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="32" t="s">
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AX8" s="33"/>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="33"/>
-      <c r="BA8" s="33"/>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="33"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="32" t="s">
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="33"/>
+      <c r="BE8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="BF8" s="33"/>
-      <c r="BG8" s="33"/>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="33"/>
-      <c r="BJ8" s="33"/>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="34"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="33"/>
       <c r="BM8" s="1"/>
       <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
@@ -1623,15 +1626,15 @@
     </row>
     <row r="9" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
       <c r="K9" s="7"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1644,48 +1647,48 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="39"/>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39"/>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="40"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39"/>
-      <c r="BK9" s="39"/>
-      <c r="BL9" s="40"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="44"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="44"/>
+      <c r="BE9" s="42"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
+      <c r="BJ9" s="43"/>
+      <c r="BK9" s="43"/>
+      <c r="BL9" s="44"/>
       <c r="BM9" s="1"/>
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
@@ -1766,42 +1769,42 @@
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="42" t="s">
+      <c r="AO10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AP10" s="43"/>
-      <c r="AQ10" s="43"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="42" t="s">
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="40"/>
+      <c r="AS10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AT10" s="43"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="42" t="s">
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="40"/>
+      <c r="AW10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AX10" s="43"/>
-      <c r="AY10" s="43"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="42" t="s">
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="40"/>
+      <c r="BA10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BB10" s="43"/>
-      <c r="BC10" s="43"/>
-      <c r="BD10" s="44"/>
-      <c r="BE10" s="42" t="s">
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="40"/>
+      <c r="BE10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BF10" s="43"/>
-      <c r="BG10" s="43"/>
-      <c r="BH10" s="44"/>
-      <c r="BI10" s="42" t="s">
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+      <c r="BH10" s="40"/>
+      <c r="BI10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BJ10" s="43"/>
-      <c r="BK10" s="43"/>
-      <c r="BL10" s="44"/>
+      <c r="BJ10" s="39"/>
+      <c r="BK10" s="39"/>
+      <c r="BL10" s="40"/>
       <c r="BM10" s="1"/>
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
@@ -1841,15 +1844,15 @@
     </row>
     <row r="11" spans="1:100" ht="14.1" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1862,28 +1865,28 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="26"/>
-      <c r="AQ11" s="26"/>
-      <c r="AR11" s="27"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="24"/>
       <c r="AS11" s="4"/>
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
@@ -1943,15 +1946,15 @@
     </row>
     <row r="12" spans="1:100" ht="14.1" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1964,32 +1967,32 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="21"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="18"/>
       <c r="AO12" s="7"/>
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="8"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="30"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="27"/>
       <c r="AW12" s="7"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
@@ -2045,15 +2048,15 @@
     </row>
     <row r="13" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -2066,28 +2069,28 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="11"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="15"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="30"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="10"/>
       <c r="AU13" s="10"/>
@@ -2147,15 +2150,15 @@
     </row>
     <row r="14" spans="1:100" ht="14.1" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -2168,28 +2171,28 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="18"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="27"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="24"/>
       <c r="AS14" s="4"/>
       <c r="AT14" s="5"/>
       <c r="AU14" s="5"/>
@@ -2249,15 +2252,15 @@
     </row>
     <row r="15" spans="1:100" ht="14.1" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="7"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2270,32 +2273,32 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="21"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="20"/>
-      <c r="AM15" s="20"/>
-      <c r="AN15" s="21"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="18"/>
       <c r="AO15" s="7"/>
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="8"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="29"/>
-      <c r="AU15" s="29"/>
-      <c r="AV15" s="30"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="27"/>
       <c r="AW15" s="7"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
@@ -2351,15 +2354,15 @@
     </row>
     <row r="16" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -2372,28 +2375,28 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="15"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="30"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
@@ -2453,15 +2456,15 @@
     </row>
     <row r="17" spans="1:100" ht="14.1" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -2474,28 +2477,28 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="18"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="27"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="24"/>
       <c r="AS17" s="4"/>
       <c r="AT17" s="5"/>
       <c r="AU17" s="5"/>
@@ -2555,15 +2558,15 @@
     </row>
     <row r="18" spans="1:100" ht="14.1" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="7"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2576,32 +2579,32 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="21"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="18"/>
       <c r="AO18" s="7"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="8"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="30"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="27"/>
       <c r="AW18" s="7"/>
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
@@ -2657,15 +2660,15 @@
     </row>
     <row r="19" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="9"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -2678,28 +2681,28 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="23"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="23"/>
-      <c r="AM19" s="23"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="15"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="30"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
@@ -2759,15 +2762,15 @@
     </row>
     <row r="20" spans="1:100" ht="14.1" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -2780,28 +2783,28 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="27"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="23"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="24"/>
       <c r="AS20" s="4"/>
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
@@ -2861,15 +2864,15 @@
     </row>
     <row r="21" spans="1:100" ht="14.1" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="7"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2882,32 +2885,32 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="21"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="18"/>
       <c r="AO21" s="7"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="8"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="30"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="27"/>
       <c r="AW21" s="7"/>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1"/>
@@ -2963,15 +2966,15 @@
     </row>
     <row r="22" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2984,28 +2987,28 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="23"/>
-      <c r="AM22" s="23"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="15"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="30"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
@@ -3065,15 +3068,15 @@
     </row>
     <row r="23" spans="1:100" ht="14.1" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -3086,28 +3089,28 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="17"/>
-      <c r="AJ23" s="18"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="18"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="27"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="24"/>
       <c r="AS23" s="4"/>
       <c r="AT23" s="5"/>
       <c r="AU23" s="5"/>
@@ -3167,15 +3170,15 @@
     </row>
     <row r="24" spans="1:100" ht="14.1" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="7"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3188,32 +3191,32 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="19"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="21"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="18"/>
       <c r="AO24" s="7"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="8"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="30"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="27"/>
       <c r="AW24" s="7"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
@@ -3269,15 +3272,15 @@
     </row>
     <row r="25" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -3290,28 +3293,28 @@
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="15"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="21"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="21"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="30"/>
       <c r="AS25" s="9"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
@@ -3371,15 +3374,15 @@
     </row>
     <row r="26" spans="1:100" ht="14.1" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -3392,28 +3395,28 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="18"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="27"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="23"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="24"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="5"/>
       <c r="AU26" s="5"/>
@@ -3473,15 +3476,15 @@
     </row>
     <row r="27" spans="1:100" s="12" customFormat="1" ht="14.1" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="7"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3494,32 +3497,32 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="19"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="21"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="18"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="8"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="29"/>
-      <c r="AV27" s="30"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="27"/>
       <c r="AW27" s="7"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1"/>
@@ -3575,15 +3578,15 @@
     </row>
     <row r="28" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -3596,28 +3599,28 @@
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="23"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="23"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="15"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="30"/>
       <c r="AS28" s="9"/>
       <c r="AT28" s="10"/>
       <c r="AU28" s="10"/>
@@ -3677,15 +3680,15 @@
     </row>
     <row r="29" spans="1:100" ht="14.1" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -3698,28 +3701,28 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="26"/>
-      <c r="AR29" s="27"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="23"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="24"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
@@ -3779,15 +3782,15 @@
     </row>
     <row r="30" spans="1:100" ht="14.1" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="7"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3800,32 +3803,32 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="21"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="18"/>
       <c r="AO30" s="7"/>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="8"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="29"/>
-      <c r="AU30" s="29"/>
-      <c r="AV30" s="30"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="27"/>
       <c r="AW30" s="7"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1"/>
@@ -3881,15 +3884,15 @@
     </row>
     <row r="31" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -3902,28 +3905,28 @@
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="23"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="23"/>
-      <c r="AM31" s="23"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="15"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="28"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="30"/>
       <c r="AS31" s="9"/>
       <c r="AT31" s="10"/>
       <c r="AU31" s="10"/>
@@ -3983,15 +3986,15 @@
     </row>
     <row r="32" spans="1:100" ht="14.1" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -4004,28 +4007,28 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="18"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="18"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="26"/>
-      <c r="AR32" s="27"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="23"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="24"/>
       <c r="AS32" s="4"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
@@ -4085,15 +4088,15 @@
     </row>
     <row r="33" spans="1:100" ht="14.1" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="7"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -4106,32 +4109,32 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="21"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="21"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="20"/>
-      <c r="AN33" s="21"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="18"/>
       <c r="AO33" s="7"/>
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
       <c r="AR33" s="8"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="29"/>
-      <c r="AU33" s="29"/>
-      <c r="AV33" s="30"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="27"/>
       <c r="AW33" s="7"/>
       <c r="AX33" s="1"/>
       <c r="AY33" s="1"/>
@@ -4187,15 +4190,15 @@
     </row>
     <row r="34" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -4208,28 +4211,28 @@
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="24"/>
-      <c r="AC34" s="22"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="23"/>
-      <c r="AI34" s="23"/>
-      <c r="AJ34" s="24"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="23"/>
-      <c r="AM34" s="23"/>
-      <c r="AN34" s="24"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="15"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="30"/>
       <c r="AS34" s="9"/>
       <c r="AT34" s="10"/>
       <c r="AU34" s="10"/>
@@ -4289,15 +4292,15 @@
     </row>
     <row r="35" spans="1:100" ht="14.1" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -4310,28 +4313,28 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="17"/>
-      <c r="AI35" s="17"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="16"/>
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-      <c r="AN35" s="18"/>
-      <c r="AO35" s="25"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="26"/>
-      <c r="AR35" s="27"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="24"/>
       <c r="AS35" s="4"/>
       <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
@@ -4391,15 +4394,15 @@
     </row>
     <row r="36" spans="1:100" ht="14.1" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="7"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -4412,32 +4415,32 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="21"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="21"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="20"/>
-      <c r="AN36" s="21"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="16"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="18"/>
+      <c r="AK36" s="16"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="18"/>
       <c r="AO36" s="7"/>
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
       <c r="AR36" s="8"/>
-      <c r="AS36" s="28"/>
-      <c r="AT36" s="29"/>
-      <c r="AU36" s="29"/>
-      <c r="AV36" s="30"/>
+      <c r="AS36" s="25"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="27"/>
       <c r="AW36" s="7"/>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1"/>
@@ -4493,15 +4496,15 @@
     </row>
     <row r="37" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="24"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="9"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -4514,28 +4517,28 @@
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="22"/>
-      <c r="AD37" s="23"/>
-      <c r="AE37" s="23"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="23"/>
-      <c r="AI37" s="23"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="23"/>
-      <c r="AM37" s="23"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="14"/>
-      <c r="AQ37" s="14"/>
-      <c r="AR37" s="15"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="30"/>
       <c r="AS37" s="9"/>
       <c r="AT37" s="10"/>
       <c r="AU37" s="10"/>
@@ -4595,15 +4598,15 @@
     </row>
     <row r="38" spans="1:100" ht="14.1" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -4616,28 +4619,28 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="18"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="18"/>
-      <c r="AO38" s="25"/>
-      <c r="AP38" s="26"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="27"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="13"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="23"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="24"/>
       <c r="AS38" s="4"/>
       <c r="AT38" s="5"/>
       <c r="AU38" s="5"/>
@@ -4697,15 +4700,15 @@
     </row>
     <row r="39" spans="1:100" ht="14.1" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="7"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -4718,32 +4721,32 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="21"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="18"/>
       <c r="AO39" s="7"/>
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="8"/>
-      <c r="AS39" s="28"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="30"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="27"/>
       <c r="AW39" s="7"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1"/>
@@ -4799,15 +4802,15 @@
     </row>
     <row r="40" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -4820,28 +4823,28 @@
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="23"/>
-      <c r="AM40" s="23"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="15"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="29"/>
+      <c r="AQ40" s="29"/>
+      <c r="AR40" s="30"/>
       <c r="AS40" s="9"/>
       <c r="AT40" s="10"/>
       <c r="AU40" s="10"/>
@@ -4901,15 +4904,15 @@
     </row>
     <row r="41" spans="1:100" ht="14.1" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
       <c r="K41" s="4"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -4922,28 +4925,28 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="16"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="25"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
-      <c r="AR41" s="27"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="14"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="13"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="23"/>
+      <c r="AQ41" s="23"/>
+      <c r="AR41" s="24"/>
       <c r="AS41" s="4"/>
       <c r="AT41" s="5"/>
       <c r="AU41" s="5"/>
@@ -5002,15 +5005,15 @@
       <c r="CV41" s="1"/>
     </row>
     <row r="42" spans="1:100" ht="14.1" customHeight="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="7"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -5023,32 +5026,32 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="21"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-      <c r="AJ42" s="21"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="20"/>
-      <c r="AM42" s="20"/>
-      <c r="AN42" s="21"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="18"/>
       <c r="AO42" s="7"/>
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
       <c r="AR42" s="8"/>
-      <c r="AS42" s="28"/>
-      <c r="AT42" s="29"/>
-      <c r="AU42" s="29"/>
-      <c r="AV42" s="30"/>
+      <c r="AS42" s="25"/>
+      <c r="AT42" s="26"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="27"/>
       <c r="AW42" s="7"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1"/>
@@ -5103,15 +5106,15 @@
       <c r="CV42" s="1"/>
     </row>
     <row r="43" spans="1:100" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -5124,28 +5127,28 @@
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="22"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="22"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="24"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="24"/>
-      <c r="AO43" s="13"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="15"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="28"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="29"/>
+      <c r="AR43" s="30"/>
       <c r="AS43" s="9"/>
       <c r="AT43" s="10"/>
       <c r="AU43" s="10"/>
@@ -5204,15 +5207,15 @@
       <c r="CV43" s="1"/>
     </row>
     <row r="44" spans="1:100" ht="14.1" customHeight="1">
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="4"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -5225,28 +5228,28 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
-      <c r="AJ44" s="18"/>
-      <c r="AK44" s="16"/>
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-      <c r="AN44" s="18"/>
-      <c r="AO44" s="25"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="27"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="13"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="13"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="24"/>
       <c r="AS44" s="4"/>
       <c r="AT44" s="5"/>
       <c r="AU44" s="5"/>
@@ -5268,16 +5271,16 @@
       <c r="BK44" s="5"/>
       <c r="BL44" s="6"/>
     </row>
-    <row r="45" spans="1:100" ht="14.4">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
+    <row r="45" spans="1:100" ht="14.25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="7"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5290,32 +5293,32 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="8"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="21"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="20"/>
-      <c r="AI45" s="20"/>
-      <c r="AJ45" s="21"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="20"/>
-      <c r="AM45" s="20"/>
-      <c r="AN45" s="21"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="18"/>
       <c r="AO45" s="7"/>
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="8"/>
-      <c r="AS45" s="28"/>
-      <c r="AT45" s="29"/>
-      <c r="AU45" s="29"/>
-      <c r="AV45" s="30"/>
+      <c r="AS45" s="25"/>
+      <c r="AT45" s="26"/>
+      <c r="AU45" s="26"/>
+      <c r="AV45" s="27"/>
       <c r="AW45" s="7"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
@@ -5334,15 +5337,15 @@
       <c r="BL45" s="8"/>
     </row>
     <row r="46" spans="1:100" ht="15" thickBot="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="24"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -5355,28 +5358,28 @@
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="11"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="22"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="23"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="15"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="21"/>
+      <c r="AK46" s="19"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="29"/>
+      <c r="AR46" s="30"/>
       <c r="AS46" s="9"/>
       <c r="AT46" s="10"/>
       <c r="AU46" s="10"/>
@@ -5398,16 +5401,16 @@
       <c r="BK46" s="10"/>
       <c r="BL46" s="11"/>
     </row>
-    <row r="47" spans="1:100" ht="14.4">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
+    <row r="47" spans="1:100" ht="14.25">
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
       <c r="K47" s="4"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -5420,28 +5423,28 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="17"/>
-      <c r="AI47" s="17"/>
-      <c r="AJ47" s="18"/>
-      <c r="AK47" s="16"/>
-      <c r="AL47" s="17"/>
-      <c r="AM47" s="17"/>
-      <c r="AN47" s="18"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="26"/>
-      <c r="AQ47" s="26"/>
-      <c r="AR47" s="27"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="13"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="13"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="13"/>
+      <c r="AL47" s="14"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="23"/>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="24"/>
       <c r="AS47" s="4"/>
       <c r="AT47" s="5"/>
       <c r="AU47" s="5"/>
@@ -5463,16 +5466,16 @@
       <c r="BK47" s="5"/>
       <c r="BL47" s="6"/>
     </row>
-    <row r="48" spans="1:100" ht="14.4">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
+    <row r="48" spans="1:100" ht="14.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="7"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -5485,32 +5488,32 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="8"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="21"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-      <c r="AJ48" s="21"/>
-      <c r="AK48" s="19"/>
-      <c r="AL48" s="20"/>
-      <c r="AM48" s="20"/>
-      <c r="AN48" s="21"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="16"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="18"/>
       <c r="AO48" s="7"/>
       <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
       <c r="AR48" s="8"/>
-      <c r="AS48" s="28"/>
-      <c r="AT48" s="29"/>
-      <c r="AU48" s="29"/>
-      <c r="AV48" s="30"/>
+      <c r="AS48" s="25"/>
+      <c r="AT48" s="26"/>
+      <c r="AU48" s="26"/>
+      <c r="AV48" s="27"/>
       <c r="AW48" s="7"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
@@ -5529,15 +5532,15 @@
       <c r="BL48" s="8"/>
     </row>
     <row r="49" spans="2:64" ht="15" thickBot="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="24"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
       <c r="K49" s="9"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -5550,28 +5553,28 @@
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="23"/>
-      <c r="AE49" s="23"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="24"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="23"/>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="15"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="21"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="28"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="30"/>
       <c r="AS49" s="9"/>
       <c r="AT49" s="10"/>
       <c r="AU49" s="10"/>
@@ -5593,16 +5596,16 @@
       <c r="BK49" s="10"/>
       <c r="BL49" s="11"/>
     </row>
-    <row r="50" spans="2:64" ht="14.4">
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
+    <row r="50" spans="2:64" ht="14.25">
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
       <c r="K50" s="4"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -5615,28 +5618,28 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="16"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
-      <c r="AJ50" s="18"/>
-      <c r="AK50" s="16"/>
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-      <c r="AN50" s="18"/>
-      <c r="AO50" s="25"/>
-      <c r="AP50" s="26"/>
-      <c r="AQ50" s="26"/>
-      <c r="AR50" s="27"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="13"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="15"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="22"/>
+      <c r="AP50" s="23"/>
+      <c r="AQ50" s="23"/>
+      <c r="AR50" s="24"/>
       <c r="AS50" s="4"/>
       <c r="AT50" s="5"/>
       <c r="AU50" s="5"/>
@@ -5658,16 +5661,16 @@
       <c r="BK50" s="5"/>
       <c r="BL50" s="6"/>
     </row>
-    <row r="51" spans="2:64" ht="14.4">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
+    <row r="51" spans="2:64" ht="14.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="7"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -5680,32 +5683,32 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="8"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="20"/>
-      <c r="AM51" s="20"/>
-      <c r="AN51" s="21"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="17"/>
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="18"/>
       <c r="AO51" s="7"/>
       <c r="AP51" s="1"/>
       <c r="AQ51" s="1"/>
       <c r="AR51" s="8"/>
-      <c r="AS51" s="28"/>
-      <c r="AT51" s="29"/>
-      <c r="AU51" s="29"/>
-      <c r="AV51" s="30"/>
+      <c r="AS51" s="25"/>
+      <c r="AT51" s="26"/>
+      <c r="AU51" s="26"/>
+      <c r="AV51" s="27"/>
       <c r="AW51" s="7"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
@@ -5724,15 +5727,15 @@
       <c r="BL51" s="8"/>
     </row>
     <row r="52" spans="2:64" ht="15" thickBot="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="24"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
       <c r="K52" s="9"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -5745,28 +5748,28 @@
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
       <c r="V52" s="11"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="22"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="22"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="24"/>
-      <c r="AO52" s="13"/>
-      <c r="AP52" s="14"/>
-      <c r="AQ52" s="14"/>
-      <c r="AR52" s="15"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="19"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="21"/>
+      <c r="AK52" s="19"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="28"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="29"/>
+      <c r="AR52" s="30"/>
       <c r="AS52" s="9"/>
       <c r="AT52" s="10"/>
       <c r="AU52" s="10"/>
@@ -5788,16 +5791,16 @@
       <c r="BK52" s="10"/>
       <c r="BL52" s="11"/>
     </row>
-    <row r="53" spans="2:64" ht="14.4">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
+    <row r="53" spans="2:64" ht="14.25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
       <c r="K53" s="4"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -5810,28 +5813,28 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="16"/>
-      <c r="AD53" s="17"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="16"/>
-      <c r="AH53" s="17"/>
-      <c r="AI53" s="17"/>
-      <c r="AJ53" s="18"/>
-      <c r="AK53" s="16"/>
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="25"/>
-      <c r="AP53" s="26"/>
-      <c r="AQ53" s="26"/>
-      <c r="AR53" s="27"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="15"/>
+      <c r="AG53" s="13"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="15"/>
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="22"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="23"/>
+      <c r="AR53" s="24"/>
       <c r="AS53" s="4"/>
       <c r="AT53" s="5"/>
       <c r="AU53" s="5"/>
@@ -5853,16 +5856,16 @@
       <c r="BK53" s="5"/>
       <c r="BL53" s="6"/>
     </row>
-    <row r="54" spans="2:64" ht="14.4">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21"/>
+    <row r="54" spans="2:64" ht="14.25">
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="7"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -5875,32 +5878,32 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="8"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="21"/>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="21"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="17"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="16"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="18"/>
       <c r="AO54" s="7"/>
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
       <c r="AR54" s="8"/>
-      <c r="AS54" s="28"/>
-      <c r="AT54" s="29"/>
-      <c r="AU54" s="29"/>
-      <c r="AV54" s="30"/>
+      <c r="AS54" s="25"/>
+      <c r="AT54" s="26"/>
+      <c r="AU54" s="26"/>
+      <c r="AV54" s="27"/>
       <c r="AW54" s="7"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
@@ -5919,15 +5922,15 @@
       <c r="BL54" s="8"/>
     </row>
     <row r="55" spans="2:64" ht="15" thickBot="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="24"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
       <c r="K55" s="9"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -5940,28 +5943,28 @@
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="24"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="22"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="24"/>
-      <c r="AK55" s="22"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="24"/>
-      <c r="AO55" s="13"/>
-      <c r="AP55" s="14"/>
-      <c r="AQ55" s="14"/>
-      <c r="AR55" s="15"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="19"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="19"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="28"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
+      <c r="AR55" s="30"/>
       <c r="AS55" s="9"/>
       <c r="AT55" s="10"/>
       <c r="AU55" s="10"/>
@@ -5983,16 +5986,16 @@
       <c r="BK55" s="10"/>
       <c r="BL55" s="11"/>
     </row>
-    <row r="56" spans="2:64" ht="14.4">
-      <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="18"/>
+    <row r="56" spans="2:64" ht="14.25">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
       <c r="K56" s="4"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -6005,28 +6008,28 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="17"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="18"/>
-      <c r="AG56" s="16"/>
-      <c r="AH56" s="17"/>
-      <c r="AI56" s="17"/>
-      <c r="AJ56" s="18"/>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="17"/>
-      <c r="AM56" s="17"/>
-      <c r="AN56" s="18"/>
-      <c r="AO56" s="25"/>
-      <c r="AP56" s="26"/>
-      <c r="AQ56" s="26"/>
-      <c r="AR56" s="27"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="13"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="13"/>
+      <c r="AL56" s="14"/>
+      <c r="AM56" s="14"/>
+      <c r="AN56" s="15"/>
+      <c r="AO56" s="22"/>
+      <c r="AP56" s="23"/>
+      <c r="AQ56" s="23"/>
+      <c r="AR56" s="24"/>
       <c r="AS56" s="4"/>
       <c r="AT56" s="5"/>
       <c r="AU56" s="5"/>
@@ -6048,16 +6051,16 @@
       <c r="BK56" s="5"/>
       <c r="BL56" s="6"/>
     </row>
-    <row r="57" spans="2:64" ht="14.4">
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
+    <row r="57" spans="2:64" ht="14.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="7"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -6070,32 +6073,32 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="8"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="19"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="20"/>
-      <c r="AJ57" s="21"/>
-      <c r="AK57" s="19"/>
-      <c r="AL57" s="20"/>
-      <c r="AM57" s="20"/>
-      <c r="AN57" s="21"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="16"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="18"/>
+      <c r="AK57" s="16"/>
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="18"/>
       <c r="AO57" s="7"/>
       <c r="AP57" s="1"/>
       <c r="AQ57" s="1"/>
       <c r="AR57" s="8"/>
-      <c r="AS57" s="28"/>
-      <c r="AT57" s="29"/>
-      <c r="AU57" s="29"/>
-      <c r="AV57" s="30"/>
+      <c r="AS57" s="25"/>
+      <c r="AT57" s="26"/>
+      <c r="AU57" s="26"/>
+      <c r="AV57" s="27"/>
       <c r="AW57" s="7"/>
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
@@ -6114,15 +6117,15 @@
       <c r="BL57" s="8"/>
     </row>
     <row r="58" spans="2:64" ht="15" thickBot="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
       <c r="K58" s="9"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -6135,28 +6138,28 @@
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="23"/>
-      <c r="AE58" s="23"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="22"/>
-      <c r="AH58" s="23"/>
-      <c r="AI58" s="23"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="22"/>
-      <c r="AL58" s="23"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="24"/>
-      <c r="AO58" s="13"/>
-      <c r="AP58" s="14"/>
-      <c r="AQ58" s="14"/>
-      <c r="AR58" s="15"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="20"/>
+      <c r="AI58" s="20"/>
+      <c r="AJ58" s="21"/>
+      <c r="AK58" s="19"/>
+      <c r="AL58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="28"/>
+      <c r="AP58" s="29"/>
+      <c r="AQ58" s="29"/>
+      <c r="AR58" s="30"/>
       <c r="AS58" s="9"/>
       <c r="AT58" s="10"/>
       <c r="AU58" s="10"/>
@@ -6178,16 +6181,16 @@
       <c r="BK58" s="10"/>
       <c r="BL58" s="11"/>
     </row>
-    <row r="59" spans="2:64" ht="14.4">
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="18"/>
+    <row r="59" spans="2:64" ht="14.25">
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15"/>
       <c r="K59" s="4"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -6200,28 +6203,28 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="16"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="16"/>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="16"/>
-      <c r="AH59" s="17"/>
-      <c r="AI59" s="17"/>
-      <c r="AJ59" s="18"/>
-      <c r="AK59" s="16"/>
-      <c r="AL59" s="17"/>
-      <c r="AM59" s="17"/>
-      <c r="AN59" s="18"/>
-      <c r="AO59" s="25"/>
-      <c r="AP59" s="26"/>
-      <c r="AQ59" s="26"/>
-      <c r="AR59" s="27"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="13"/>
+      <c r="AD59" s="14"/>
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="15"/>
+      <c r="AG59" s="13"/>
+      <c r="AH59" s="14"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="15"/>
+      <c r="AK59" s="13"/>
+      <c r="AL59" s="14"/>
+      <c r="AM59" s="14"/>
+      <c r="AN59" s="15"/>
+      <c r="AO59" s="22"/>
+      <c r="AP59" s="23"/>
+      <c r="AQ59" s="23"/>
+      <c r="AR59" s="24"/>
       <c r="AS59" s="4"/>
       <c r="AT59" s="5"/>
       <c r="AU59" s="5"/>
@@ -6243,16 +6246,16 @@
       <c r="BK59" s="5"/>
       <c r="BL59" s="6"/>
     </row>
-    <row r="60" spans="2:64" ht="14.4">
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
+    <row r="60" spans="2:64" ht="14.25">
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18"/>
       <c r="K60" s="7"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -6265,32 +6268,32 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="8"/>
-      <c r="W60" s="19"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="19"/>
-      <c r="AD60" s="20"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="21"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="20"/>
-      <c r="AI60" s="20"/>
-      <c r="AJ60" s="21"/>
-      <c r="AK60" s="19"/>
-      <c r="AL60" s="20"/>
-      <c r="AM60" s="20"/>
-      <c r="AN60" s="21"/>
+      <c r="W60" s="16"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="16"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
+      <c r="AJ60" s="18"/>
+      <c r="AK60" s="16"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="18"/>
       <c r="AO60" s="7"/>
       <c r="AP60" s="1"/>
       <c r="AQ60" s="1"/>
       <c r="AR60" s="8"/>
-      <c r="AS60" s="28"/>
-      <c r="AT60" s="29"/>
-      <c r="AU60" s="29"/>
-      <c r="AV60" s="30"/>
+      <c r="AS60" s="25"/>
+      <c r="AT60" s="26"/>
+      <c r="AU60" s="26"/>
+      <c r="AV60" s="27"/>
       <c r="AW60" s="7"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
@@ -6309,15 +6312,15 @@
       <c r="BL60" s="8"/>
     </row>
     <row r="61" spans="2:64" ht="15" thickBot="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="24"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
       <c r="K61" s="9"/>
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
@@ -6330,28 +6333,28 @@
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="11"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="24"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="23"/>
-      <c r="AE61" s="23"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="23"/>
-      <c r="AI61" s="23"/>
-      <c r="AJ61" s="24"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="23"/>
-      <c r="AM61" s="23"/>
-      <c r="AN61" s="24"/>
-      <c r="AO61" s="13"/>
-      <c r="AP61" s="14"/>
-      <c r="AQ61" s="14"/>
-      <c r="AR61" s="15"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="20"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="21"/>
+      <c r="AK61" s="19"/>
+      <c r="AL61" s="20"/>
+      <c r="AM61" s="20"/>
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="28"/>
+      <c r="AP61" s="29"/>
+      <c r="AQ61" s="29"/>
+      <c r="AR61" s="30"/>
       <c r="AS61" s="9"/>
       <c r="AT61" s="10"/>
       <c r="AU61" s="10"/>
@@ -6373,16 +6376,16 @@
       <c r="BK61" s="10"/>
       <c r="BL61" s="11"/>
     </row>
-    <row r="62" spans="2:64" ht="14.4">
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="18"/>
+    <row r="62" spans="2:64" ht="14.25">
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="15"/>
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -6395,28 +6398,28 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="16"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="16"/>
-      <c r="AD62" s="17"/>
-      <c r="AE62" s="17"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="16"/>
-      <c r="AH62" s="17"/>
-      <c r="AI62" s="17"/>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="16"/>
-      <c r="AL62" s="17"/>
-      <c r="AM62" s="17"/>
-      <c r="AN62" s="18"/>
-      <c r="AO62" s="25"/>
-      <c r="AP62" s="26"/>
-      <c r="AQ62" s="26"/>
-      <c r="AR62" s="27"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="14"/>
+      <c r="Y62" s="14"/>
+      <c r="Z62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="14"/>
+      <c r="AE62" s="14"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="15"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="14"/>
+      <c r="AN62" s="15"/>
+      <c r="AO62" s="22"/>
+      <c r="AP62" s="23"/>
+      <c r="AQ62" s="23"/>
+      <c r="AR62" s="24"/>
       <c r="AS62" s="4"/>
       <c r="AT62" s="5"/>
       <c r="AU62" s="5"/>
@@ -6438,16 +6441,16 @@
       <c r="BK62" s="5"/>
       <c r="BL62" s="6"/>
     </row>
-    <row r="63" spans="2:64" ht="14.4">
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
+    <row r="63" spans="2:64" ht="14.25">
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="7"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -6460,32 +6463,32 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="8"/>
-      <c r="W63" s="19"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="21"/>
-      <c r="AC63" s="19"/>
-      <c r="AD63" s="20"/>
-      <c r="AE63" s="20"/>
-      <c r="AF63" s="21"/>
-      <c r="AG63" s="19"/>
-      <c r="AH63" s="20"/>
-      <c r="AI63" s="20"/>
-      <c r="AJ63" s="21"/>
-      <c r="AK63" s="19"/>
-      <c r="AL63" s="20"/>
-      <c r="AM63" s="20"/>
-      <c r="AN63" s="21"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="18"/>
+      <c r="AK63" s="16"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="18"/>
       <c r="AO63" s="7"/>
       <c r="AP63" s="1"/>
       <c r="AQ63" s="1"/>
       <c r="AR63" s="8"/>
-      <c r="AS63" s="28"/>
-      <c r="AT63" s="29"/>
-      <c r="AU63" s="29"/>
-      <c r="AV63" s="30"/>
+      <c r="AS63" s="25"/>
+      <c r="AT63" s="26"/>
+      <c r="AU63" s="26"/>
+      <c r="AV63" s="27"/>
       <c r="AW63" s="7"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
@@ -6504,15 +6507,15 @@
       <c r="BL63" s="8"/>
     </row>
     <row r="64" spans="2:64" ht="15" thickBot="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="24"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
       <c r="K64" s="9"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
@@ -6525,28 +6528,28 @@
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="11"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="23"/>
-      <c r="AE64" s="23"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="23"/>
-      <c r="AI64" s="23"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="23"/>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="13"/>
-      <c r="AP64" s="14"/>
-      <c r="AQ64" s="14"/>
-      <c r="AR64" s="15"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="19"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="19"/>
+      <c r="AH64" s="20"/>
+      <c r="AI64" s="20"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="19"/>
+      <c r="AL64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="28"/>
+      <c r="AP64" s="29"/>
+      <c r="AQ64" s="29"/>
+      <c r="AR64" s="30"/>
       <c r="AS64" s="9"/>
       <c r="AT64" s="10"/>
       <c r="AU64" s="10"/>
@@ -6568,16 +6571,16 @@
       <c r="BK64" s="10"/>
       <c r="BL64" s="11"/>
     </row>
-    <row r="65" spans="2:64" ht="14.4">
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
+    <row r="65" spans="2:64" ht="14.25">
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="15"/>
       <c r="K65" s="4"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -6590,28 +6593,28 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="6"/>
-      <c r="W65" s="16"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="18"/>
-      <c r="AC65" s="16"/>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="17"/>
-      <c r="AF65" s="18"/>
-      <c r="AG65" s="16"/>
-      <c r="AH65" s="17"/>
-      <c r="AI65" s="17"/>
-      <c r="AJ65" s="18"/>
-      <c r="AK65" s="16"/>
-      <c r="AL65" s="17"/>
-      <c r="AM65" s="17"/>
-      <c r="AN65" s="18"/>
-      <c r="AO65" s="25"/>
-      <c r="AP65" s="26"/>
-      <c r="AQ65" s="26"/>
-      <c r="AR65" s="27"/>
+      <c r="W65" s="13"/>
+      <c r="X65" s="14"/>
+      <c r="Y65" s="14"/>
+      <c r="Z65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="13"/>
+      <c r="AD65" s="14"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="13"/>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="13"/>
+      <c r="AL65" s="14"/>
+      <c r="AM65" s="14"/>
+      <c r="AN65" s="15"/>
+      <c r="AO65" s="22"/>
+      <c r="AP65" s="23"/>
+      <c r="AQ65" s="23"/>
+      <c r="AR65" s="24"/>
       <c r="AS65" s="4"/>
       <c r="AT65" s="5"/>
       <c r="AU65" s="5"/>
@@ -6633,16 +6636,16 @@
       <c r="BK65" s="5"/>
       <c r="BL65" s="6"/>
     </row>
-    <row r="66" spans="2:64" ht="14.4">
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
+    <row r="66" spans="2:64" ht="14.25">
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
       <c r="K66" s="7"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -6655,32 +6658,32 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
       <c r="V66" s="8"/>
-      <c r="W66" s="19"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="20"/>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="19"/>
-      <c r="AD66" s="20"/>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="20"/>
-      <c r="AI66" s="20"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="19"/>
-      <c r="AL66" s="20"/>
-      <c r="AM66" s="20"/>
-      <c r="AN66" s="21"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="16"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
+      <c r="AJ66" s="18"/>
+      <c r="AK66" s="16"/>
+      <c r="AL66" s="17"/>
+      <c r="AM66" s="17"/>
+      <c r="AN66" s="18"/>
       <c r="AO66" s="7"/>
       <c r="AP66" s="1"/>
       <c r="AQ66" s="1"/>
       <c r="AR66" s="8"/>
-      <c r="AS66" s="28"/>
-      <c r="AT66" s="29"/>
-      <c r="AU66" s="29"/>
-      <c r="AV66" s="30"/>
+      <c r="AS66" s="25"/>
+      <c r="AT66" s="26"/>
+      <c r="AU66" s="26"/>
+      <c r="AV66" s="27"/>
       <c r="AW66" s="7"/>
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
@@ -6699,15 +6702,15 @@
       <c r="BL66" s="8"/>
     </row>
     <row r="67" spans="2:64" ht="15" thickBot="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="24"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
       <c r="K67" s="9"/>
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
@@ -6720,28 +6723,28 @@
       <c r="T67" s="10"/>
       <c r="U67" s="10"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="23"/>
-      <c r="Z67" s="23"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="23"/>
-      <c r="AE67" s="23"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="23"/>
-      <c r="AI67" s="23"/>
-      <c r="AJ67" s="24"/>
-      <c r="AK67" s="22"/>
-      <c r="AL67" s="23"/>
-      <c r="AM67" s="23"/>
-      <c r="AN67" s="24"/>
-      <c r="AO67" s="13"/>
-      <c r="AP67" s="14"/>
-      <c r="AQ67" s="14"/>
-      <c r="AR67" s="15"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="20"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="20"/>
+      <c r="AI67" s="20"/>
+      <c r="AJ67" s="21"/>
+      <c r="AK67" s="19"/>
+      <c r="AL67" s="20"/>
+      <c r="AM67" s="20"/>
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="28"/>
+      <c r="AP67" s="29"/>
+      <c r="AQ67" s="29"/>
+      <c r="AR67" s="30"/>
       <c r="AS67" s="9"/>
       <c r="AT67" s="10"/>
       <c r="AU67" s="10"/>
@@ -6764,15 +6767,15 @@
       <c r="BL67" s="11"/>
     </row>
     <row r="68" spans="2:64" ht="15" customHeight="1">
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="18"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
       <c r="K68" s="4"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -6785,28 +6788,28 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="6"/>
-      <c r="W68" s="16"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="18"/>
-      <c r="AC68" s="16"/>
-      <c r="AD68" s="17"/>
-      <c r="AE68" s="17"/>
-      <c r="AF68" s="18"/>
-      <c r="AG68" s="16"/>
-      <c r="AH68" s="17"/>
-      <c r="AI68" s="17"/>
-      <c r="AJ68" s="18"/>
-      <c r="AK68" s="16"/>
-      <c r="AL68" s="17"/>
-      <c r="AM68" s="17"/>
-      <c r="AN68" s="18"/>
-      <c r="AO68" s="25"/>
-      <c r="AP68" s="26"/>
-      <c r="AQ68" s="26"/>
-      <c r="AR68" s="27"/>
+      <c r="W68" s="13"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="13"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="13"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="15"/>
+      <c r="AK68" s="13"/>
+      <c r="AL68" s="14"/>
+      <c r="AM68" s="14"/>
+      <c r="AN68" s="15"/>
+      <c r="AO68" s="22"/>
+      <c r="AP68" s="23"/>
+      <c r="AQ68" s="23"/>
+      <c r="AR68" s="24"/>
       <c r="AS68" s="4"/>
       <c r="AT68" s="5"/>
       <c r="AU68" s="5"/>
@@ -6829,15 +6832,15 @@
       <c r="BL68" s="6"/>
     </row>
     <row r="69" spans="2:64" ht="14.1" customHeight="1">
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="21"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="7"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -6850,32 +6853,32 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="8"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="20"/>
-      <c r="Y69" s="20"/>
-      <c r="Z69" s="20"/>
-      <c r="AA69" s="20"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="19"/>
-      <c r="AD69" s="20"/>
-      <c r="AE69" s="20"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="20"/>
-      <c r="AI69" s="20"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="19"/>
-      <c r="AL69" s="20"/>
-      <c r="AM69" s="20"/>
-      <c r="AN69" s="21"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="17"/>
+      <c r="AA69" s="17"/>
+      <c r="AB69" s="18"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="17"/>
+      <c r="AF69" s="18"/>
+      <c r="AG69" s="16"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="17"/>
+      <c r="AJ69" s="18"/>
+      <c r="AK69" s="16"/>
+      <c r="AL69" s="17"/>
+      <c r="AM69" s="17"/>
+      <c r="AN69" s="18"/>
       <c r="AO69" s="7"/>
       <c r="AP69" s="1"/>
       <c r="AQ69" s="1"/>
       <c r="AR69" s="8"/>
-      <c r="AS69" s="28"/>
-      <c r="AT69" s="29"/>
-      <c r="AU69" s="29"/>
-      <c r="AV69" s="30"/>
+      <c r="AS69" s="25"/>
+      <c r="AT69" s="26"/>
+      <c r="AU69" s="26"/>
+      <c r="AV69" s="27"/>
       <c r="AW69" s="7"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
@@ -6894,15 +6897,15 @@
       <c r="BL69" s="8"/>
     </row>
     <row r="70" spans="2:64" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="24"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
       <c r="K70" s="9"/>
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
@@ -6915,28 +6918,28 @@
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
       <c r="V70" s="11"/>
-      <c r="W70" s="22"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23"/>
-      <c r="Z70" s="23"/>
-      <c r="AA70" s="23"/>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="23"/>
-      <c r="AE70" s="23"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="22"/>
-      <c r="AH70" s="23"/>
-      <c r="AI70" s="23"/>
-      <c r="AJ70" s="24"/>
-      <c r="AK70" s="22"/>
-      <c r="AL70" s="23"/>
-      <c r="AM70" s="23"/>
-      <c r="AN70" s="24"/>
-      <c r="AO70" s="13"/>
-      <c r="AP70" s="14"/>
-      <c r="AQ70" s="14"/>
-      <c r="AR70" s="15"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="19"/>
+      <c r="AD70" s="20"/>
+      <c r="AE70" s="20"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="19"/>
+      <c r="AH70" s="20"/>
+      <c r="AI70" s="20"/>
+      <c r="AJ70" s="21"/>
+      <c r="AK70" s="19"/>
+      <c r="AL70" s="20"/>
+      <c r="AM70" s="20"/>
+      <c r="AN70" s="21"/>
+      <c r="AO70" s="28"/>
+      <c r="AP70" s="29"/>
+      <c r="AQ70" s="29"/>
+      <c r="AR70" s="30"/>
       <c r="AS70" s="9"/>
       <c r="AT70" s="10"/>
       <c r="AU70" s="10"/>
@@ -6958,16 +6961,16 @@
       <c r="BK70" s="10"/>
       <c r="BL70" s="11"/>
     </row>
-    <row r="71" spans="2:64" ht="14.4">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="18"/>
+    <row r="71" spans="2:64" ht="14.25">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
       <c r="K71" s="4"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -6980,28 +6983,28 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="6"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="18"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="17"/>
-      <c r="AE71" s="17"/>
-      <c r="AF71" s="18"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="17"/>
-      <c r="AI71" s="17"/>
-      <c r="AJ71" s="18"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="17"/>
-      <c r="AM71" s="17"/>
-      <c r="AN71" s="18"/>
-      <c r="AO71" s="25"/>
-      <c r="AP71" s="26"/>
-      <c r="AQ71" s="26"/>
-      <c r="AR71" s="27"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="14"/>
+      <c r="Y71" s="14"/>
+      <c r="Z71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="14"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="14"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="13"/>
+      <c r="AL71" s="14"/>
+      <c r="AM71" s="14"/>
+      <c r="AN71" s="15"/>
+      <c r="AO71" s="22"/>
+      <c r="AP71" s="23"/>
+      <c r="AQ71" s="23"/>
+      <c r="AR71" s="24"/>
       <c r="AS71" s="4"/>
       <c r="AT71" s="5"/>
       <c r="AU71" s="5"/>
@@ -7023,16 +7026,16 @@
       <c r="BK71" s="5"/>
       <c r="BL71" s="6"/>
     </row>
-    <row r="72" spans="2:64" ht="14.4">
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="21"/>
+    <row r="72" spans="2:64" ht="14.25">
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="18"/>
       <c r="K72" s="7"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -7045,32 +7048,32 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="8"/>
-      <c r="W72" s="19"/>
-      <c r="X72" s="20"/>
-      <c r="Y72" s="20"/>
-      <c r="Z72" s="20"/>
-      <c r="AA72" s="20"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="20"/>
-      <c r="AE72" s="20"/>
-      <c r="AF72" s="21"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="20"/>
-      <c r="AI72" s="20"/>
-      <c r="AJ72" s="21"/>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="20"/>
-      <c r="AM72" s="20"/>
-      <c r="AN72" s="21"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="18"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="18"/>
+      <c r="AG72" s="16"/>
+      <c r="AH72" s="17"/>
+      <c r="AI72" s="17"/>
+      <c r="AJ72" s="18"/>
+      <c r="AK72" s="16"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="18"/>
       <c r="AO72" s="7"/>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
       <c r="AR72" s="8"/>
-      <c r="AS72" s="28"/>
-      <c r="AT72" s="29"/>
-      <c r="AU72" s="29"/>
-      <c r="AV72" s="30"/>
+      <c r="AS72" s="25"/>
+      <c r="AT72" s="26"/>
+      <c r="AU72" s="26"/>
+      <c r="AV72" s="27"/>
       <c r="AW72" s="7"/>
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
@@ -7089,15 +7092,15 @@
       <c r="BL72" s="8"/>
     </row>
     <row r="73" spans="2:64" ht="15" thickBot="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="24"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="9"/>
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
@@ -7110,28 +7113,28 @@
       <c r="T73" s="10"/>
       <c r="U73" s="10"/>
       <c r="V73" s="11"/>
-      <c r="W73" s="22"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="23"/>
-      <c r="Z73" s="23"/>
-      <c r="AA73" s="23"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="23"/>
-      <c r="AE73" s="23"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="22"/>
-      <c r="AH73" s="23"/>
-      <c r="AI73" s="23"/>
-      <c r="AJ73" s="24"/>
-      <c r="AK73" s="22"/>
-      <c r="AL73" s="23"/>
-      <c r="AM73" s="23"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="13"/>
-      <c r="AP73" s="14"/>
-      <c r="AQ73" s="14"/>
-      <c r="AR73" s="15"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="20"/>
+      <c r="AE73" s="20"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="20"/>
+      <c r="AI73" s="20"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="19"/>
+      <c r="AL73" s="20"/>
+      <c r="AM73" s="20"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="28"/>
+      <c r="AP73" s="29"/>
+      <c r="AQ73" s="29"/>
+      <c r="AR73" s="30"/>
       <c r="AS73" s="9"/>
       <c r="AT73" s="10"/>
       <c r="AU73" s="10"/>
@@ -7153,16 +7156,16 @@
       <c r="BK73" s="10"/>
       <c r="BL73" s="11"/>
     </row>
-    <row r="74" spans="2:64" ht="14.4">
-      <c r="B74" s="16"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="18"/>
+    <row r="74" spans="2:64" ht="14.25">
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
       <c r="K74" s="4"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -7175,28 +7178,28 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="6"/>
-      <c r="W74" s="16"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="16"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="18"/>
-      <c r="AG74" s="16"/>
-      <c r="AH74" s="17"/>
-      <c r="AI74" s="17"/>
-      <c r="AJ74" s="18"/>
-      <c r="AK74" s="16"/>
-      <c r="AL74" s="17"/>
-      <c r="AM74" s="17"/>
-      <c r="AN74" s="18"/>
-      <c r="AO74" s="25"/>
-      <c r="AP74" s="26"/>
-      <c r="AQ74" s="26"/>
-      <c r="AR74" s="27"/>
+      <c r="W74" s="13"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="13"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="13"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="15"/>
+      <c r="AK74" s="13"/>
+      <c r="AL74" s="14"/>
+      <c r="AM74" s="14"/>
+      <c r="AN74" s="15"/>
+      <c r="AO74" s="22"/>
+      <c r="AP74" s="23"/>
+      <c r="AQ74" s="23"/>
+      <c r="AR74" s="24"/>
       <c r="AS74" s="4"/>
       <c r="AT74" s="5"/>
       <c r="AU74" s="5"/>
@@ -7218,16 +7221,16 @@
       <c r="BK74" s="5"/>
       <c r="BL74" s="6"/>
     </row>
-    <row r="75" spans="2:64" ht="14.4">
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="21"/>
+    <row r="75" spans="2:64" ht="14.25">
+      <c r="B75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="18"/>
       <c r="K75" s="7"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
@@ -7240,32 +7243,32 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="8"/>
-      <c r="W75" s="19"/>
-      <c r="X75" s="20"/>
-      <c r="Y75" s="20"/>
-      <c r="Z75" s="20"/>
-      <c r="AA75" s="20"/>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="19"/>
-      <c r="AD75" s="20"/>
-      <c r="AE75" s="20"/>
-      <c r="AF75" s="21"/>
-      <c r="AG75" s="19"/>
-      <c r="AH75" s="20"/>
-      <c r="AI75" s="20"/>
-      <c r="AJ75" s="21"/>
-      <c r="AK75" s="19"/>
-      <c r="AL75" s="20"/>
-      <c r="AM75" s="20"/>
-      <c r="AN75" s="21"/>
+      <c r="W75" s="16"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="18"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="16"/>
+      <c r="AH75" s="17"/>
+      <c r="AI75" s="17"/>
+      <c r="AJ75" s="18"/>
+      <c r="AK75" s="16"/>
+      <c r="AL75" s="17"/>
+      <c r="AM75" s="17"/>
+      <c r="AN75" s="18"/>
       <c r="AO75" s="7"/>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
       <c r="AR75" s="8"/>
-      <c r="AS75" s="28"/>
-      <c r="AT75" s="29"/>
-      <c r="AU75" s="29"/>
-      <c r="AV75" s="30"/>
+      <c r="AS75" s="25"/>
+      <c r="AT75" s="26"/>
+      <c r="AU75" s="26"/>
+      <c r="AV75" s="27"/>
       <c r="AW75" s="7"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
@@ -7284,15 +7287,15 @@
       <c r="BL75" s="8"/>
     </row>
     <row r="76" spans="2:64" ht="15" thickBot="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="24"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
       <c r="K76" s="9"/>
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
@@ -7305,28 +7308,28 @@
       <c r="T76" s="10"/>
       <c r="U76" s="10"/>
       <c r="V76" s="11"/>
-      <c r="W76" s="22"/>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="23"/>
-      <c r="Z76" s="23"/>
-      <c r="AA76" s="23"/>
-      <c r="AB76" s="24"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="23"/>
-      <c r="AE76" s="23"/>
-      <c r="AF76" s="24"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="23"/>
-      <c r="AI76" s="23"/>
-      <c r="AJ76" s="24"/>
-      <c r="AK76" s="22"/>
-      <c r="AL76" s="23"/>
-      <c r="AM76" s="23"/>
-      <c r="AN76" s="24"/>
-      <c r="AO76" s="13"/>
-      <c r="AP76" s="14"/>
-      <c r="AQ76" s="14"/>
-      <c r="AR76" s="15"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="21"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="20"/>
+      <c r="AE76" s="20"/>
+      <c r="AF76" s="21"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="20"/>
+      <c r="AI76" s="20"/>
+      <c r="AJ76" s="21"/>
+      <c r="AK76" s="19"/>
+      <c r="AL76" s="20"/>
+      <c r="AM76" s="20"/>
+      <c r="AN76" s="21"/>
+      <c r="AO76" s="28"/>
+      <c r="AP76" s="29"/>
+      <c r="AQ76" s="29"/>
+      <c r="AR76" s="30"/>
       <c r="AS76" s="9"/>
       <c r="AT76" s="10"/>
       <c r="AU76" s="10"/>
@@ -7348,16 +7351,16 @@
       <c r="BK76" s="10"/>
       <c r="BL76" s="11"/>
     </row>
-    <row r="77" spans="2:64" ht="14.4">
-      <c r="B77" s="16"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="18"/>
+    <row r="77" spans="2:64" ht="14.25">
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="15"/>
       <c r="K77" s="4"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -7370,28 +7373,28 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="6"/>
-      <c r="W77" s="16"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-      <c r="Z77" s="17"/>
-      <c r="AA77" s="17"/>
-      <c r="AB77" s="18"/>
-      <c r="AC77" s="16"/>
-      <c r="AD77" s="17"/>
-      <c r="AE77" s="17"/>
-      <c r="AF77" s="18"/>
-      <c r="AG77" s="16"/>
-      <c r="AH77" s="17"/>
-      <c r="AI77" s="17"/>
-      <c r="AJ77" s="18"/>
-      <c r="AK77" s="16"/>
-      <c r="AL77" s="17"/>
-      <c r="AM77" s="17"/>
-      <c r="AN77" s="18"/>
-      <c r="AO77" s="25"/>
-      <c r="AP77" s="26"/>
-      <c r="AQ77" s="26"/>
-      <c r="AR77" s="27"/>
+      <c r="W77" s="13"/>
+      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="13"/>
+      <c r="AD77" s="14"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="13"/>
+      <c r="AH77" s="14"/>
+      <c r="AI77" s="14"/>
+      <c r="AJ77" s="15"/>
+      <c r="AK77" s="13"/>
+      <c r="AL77" s="14"/>
+      <c r="AM77" s="14"/>
+      <c r="AN77" s="15"/>
+      <c r="AO77" s="22"/>
+      <c r="AP77" s="23"/>
+      <c r="AQ77" s="23"/>
+      <c r="AR77" s="24"/>
       <c r="AS77" s="4"/>
       <c r="AT77" s="5"/>
       <c r="AU77" s="5"/>
@@ -7413,16 +7416,16 @@
       <c r="BK77" s="5"/>
       <c r="BL77" s="6"/>
     </row>
-    <row r="78" spans="2:64" ht="14.4">
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21"/>
+    <row r="78" spans="2:64" ht="14.25">
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="18"/>
       <c r="K78" s="7"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -7435,32 +7438,32 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="8"/>
-      <c r="W78" s="19"/>
-      <c r="X78" s="20"/>
-      <c r="Y78" s="20"/>
-      <c r="Z78" s="20"/>
-      <c r="AA78" s="20"/>
-      <c r="AB78" s="21"/>
-      <c r="AC78" s="19"/>
-      <c r="AD78" s="20"/>
-      <c r="AE78" s="20"/>
-      <c r="AF78" s="21"/>
-      <c r="AG78" s="19"/>
-      <c r="AH78" s="20"/>
-      <c r="AI78" s="20"/>
-      <c r="AJ78" s="21"/>
-      <c r="AK78" s="19"/>
-      <c r="AL78" s="20"/>
-      <c r="AM78" s="20"/>
-      <c r="AN78" s="21"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
+      <c r="Z78" s="17"/>
+      <c r="AA78" s="17"/>
+      <c r="AB78" s="18"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="17"/>
+      <c r="AE78" s="17"/>
+      <c r="AF78" s="18"/>
+      <c r="AG78" s="16"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
+      <c r="AJ78" s="18"/>
+      <c r="AK78" s="16"/>
+      <c r="AL78" s="17"/>
+      <c r="AM78" s="17"/>
+      <c r="AN78" s="18"/>
       <c r="AO78" s="7"/>
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
       <c r="AR78" s="8"/>
-      <c r="AS78" s="28"/>
-      <c r="AT78" s="29"/>
-      <c r="AU78" s="29"/>
-      <c r="AV78" s="30"/>
+      <c r="AS78" s="25"/>
+      <c r="AT78" s="26"/>
+      <c r="AU78" s="26"/>
+      <c r="AV78" s="27"/>
       <c r="AW78" s="7"/>
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
@@ -7479,15 +7482,15 @@
       <c r="BL78" s="8"/>
     </row>
     <row r="79" spans="2:64" ht="15" thickBot="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="24"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
       <c r="K79" s="9"/>
       <c r="L79" s="10"/>
       <c r="M79" s="10"/>
@@ -7500,28 +7503,28 @@
       <c r="T79" s="10"/>
       <c r="U79" s="10"/>
       <c r="V79" s="11"/>
-      <c r="W79" s="22"/>
-      <c r="X79" s="23"/>
-      <c r="Y79" s="23"/>
-      <c r="Z79" s="23"/>
-      <c r="AA79" s="23"/>
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="23"/>
-      <c r="AE79" s="23"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="22"/>
-      <c r="AH79" s="23"/>
-      <c r="AI79" s="23"/>
-      <c r="AJ79" s="24"/>
-      <c r="AK79" s="22"/>
-      <c r="AL79" s="23"/>
-      <c r="AM79" s="23"/>
-      <c r="AN79" s="24"/>
-      <c r="AO79" s="13"/>
-      <c r="AP79" s="14"/>
-      <c r="AQ79" s="14"/>
-      <c r="AR79" s="15"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="20"/>
+      <c r="Y79" s="20"/>
+      <c r="Z79" s="20"/>
+      <c r="AA79" s="20"/>
+      <c r="AB79" s="21"/>
+      <c r="AC79" s="19"/>
+      <c r="AD79" s="20"/>
+      <c r="AE79" s="20"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="19"/>
+      <c r="AH79" s="20"/>
+      <c r="AI79" s="20"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="19"/>
+      <c r="AL79" s="20"/>
+      <c r="AM79" s="20"/>
+      <c r="AN79" s="21"/>
+      <c r="AO79" s="28"/>
+      <c r="AP79" s="29"/>
+      <c r="AQ79" s="29"/>
+      <c r="AR79" s="30"/>
       <c r="AS79" s="9"/>
       <c r="AT79" s="10"/>
       <c r="AU79" s="10"/>
@@ -7543,16 +7546,16 @@
       <c r="BK79" s="10"/>
       <c r="BL79" s="11"/>
     </row>
-    <row r="80" spans="2:64" ht="14.4">
-      <c r="B80" s="16"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="18"/>
+    <row r="80" spans="2:64" ht="14.25">
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
       <c r="K80" s="4"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -7565,28 +7568,28 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="6"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="17"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="17"/>
-      <c r="AE80" s="17"/>
-      <c r="AF80" s="18"/>
-      <c r="AG80" s="16"/>
-      <c r="AH80" s="17"/>
-      <c r="AI80" s="17"/>
-      <c r="AJ80" s="18"/>
-      <c r="AK80" s="16"/>
-      <c r="AL80" s="17"/>
-      <c r="AM80" s="17"/>
-      <c r="AN80" s="18"/>
-      <c r="AO80" s="25"/>
-      <c r="AP80" s="26"/>
-      <c r="AQ80" s="26"/>
-      <c r="AR80" s="27"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="14"/>
+      <c r="Y80" s="14"/>
+      <c r="Z80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="13"/>
+      <c r="AD80" s="14"/>
+      <c r="AE80" s="14"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="13"/>
+      <c r="AH80" s="14"/>
+      <c r="AI80" s="14"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="13"/>
+      <c r="AL80" s="14"/>
+      <c r="AM80" s="14"/>
+      <c r="AN80" s="15"/>
+      <c r="AO80" s="22"/>
+      <c r="AP80" s="23"/>
+      <c r="AQ80" s="23"/>
+      <c r="AR80" s="24"/>
       <c r="AS80" s="4"/>
       <c r="AT80" s="5"/>
       <c r="AU80" s="5"/>
@@ -7608,16 +7611,16 @@
       <c r="BK80" s="5"/>
       <c r="BL80" s="6"/>
     </row>
-    <row r="81" spans="2:64" ht="14.4">
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
+    <row r="81" spans="2:64" ht="14.25">
+      <c r="B81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="18"/>
       <c r="K81" s="7"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -7630,32 +7633,32 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="19"/>
-      <c r="X81" s="20"/>
-      <c r="Y81" s="20"/>
-      <c r="Z81" s="20"/>
-      <c r="AA81" s="20"/>
-      <c r="AB81" s="21"/>
-      <c r="AC81" s="19"/>
-      <c r="AD81" s="20"/>
-      <c r="AE81" s="20"/>
-      <c r="AF81" s="21"/>
-      <c r="AG81" s="19"/>
-      <c r="AH81" s="20"/>
-      <c r="AI81" s="20"/>
-      <c r="AJ81" s="21"/>
-      <c r="AK81" s="19"/>
-      <c r="AL81" s="20"/>
-      <c r="AM81" s="20"/>
-      <c r="AN81" s="21"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="18"/>
+      <c r="AG81" s="16"/>
+      <c r="AH81" s="17"/>
+      <c r="AI81" s="17"/>
+      <c r="AJ81" s="18"/>
+      <c r="AK81" s="16"/>
+      <c r="AL81" s="17"/>
+      <c r="AM81" s="17"/>
+      <c r="AN81" s="18"/>
       <c r="AO81" s="7"/>
       <c r="AP81" s="1"/>
       <c r="AQ81" s="1"/>
       <c r="AR81" s="8"/>
-      <c r="AS81" s="28"/>
-      <c r="AT81" s="29"/>
-      <c r="AU81" s="29"/>
-      <c r="AV81" s="30"/>
+      <c r="AS81" s="25"/>
+      <c r="AT81" s="26"/>
+      <c r="AU81" s="26"/>
+      <c r="AV81" s="27"/>
       <c r="AW81" s="7"/>
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
@@ -7674,15 +7677,15 @@
       <c r="BL81" s="8"/>
     </row>
     <row r="82" spans="2:64" ht="15" thickBot="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="24"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
       <c r="K82" s="9"/>
       <c r="L82" s="10"/>
       <c r="M82" s="10"/>
@@ -7695,28 +7698,28 @@
       <c r="T82" s="10"/>
       <c r="U82" s="10"/>
       <c r="V82" s="11"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="23"/>
-      <c r="Z82" s="23"/>
-      <c r="AA82" s="23"/>
-      <c r="AB82" s="24"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="23"/>
-      <c r="AE82" s="23"/>
-      <c r="AF82" s="24"/>
-      <c r="AG82" s="22"/>
-      <c r="AH82" s="23"/>
-      <c r="AI82" s="23"/>
-      <c r="AJ82" s="24"/>
-      <c r="AK82" s="22"/>
-      <c r="AL82" s="23"/>
-      <c r="AM82" s="23"/>
-      <c r="AN82" s="24"/>
-      <c r="AO82" s="13"/>
-      <c r="AP82" s="14"/>
-      <c r="AQ82" s="14"/>
-      <c r="AR82" s="15"/>
+      <c r="W82" s="19"/>
+      <c r="X82" s="20"/>
+      <c r="Y82" s="20"/>
+      <c r="Z82" s="20"/>
+      <c r="AA82" s="20"/>
+      <c r="AB82" s="21"/>
+      <c r="AC82" s="19"/>
+      <c r="AD82" s="20"/>
+      <c r="AE82" s="20"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="19"/>
+      <c r="AH82" s="20"/>
+      <c r="AI82" s="20"/>
+      <c r="AJ82" s="21"/>
+      <c r="AK82" s="19"/>
+      <c r="AL82" s="20"/>
+      <c r="AM82" s="20"/>
+      <c r="AN82" s="21"/>
+      <c r="AO82" s="28"/>
+      <c r="AP82" s="29"/>
+      <c r="AQ82" s="29"/>
+      <c r="AR82" s="30"/>
       <c r="AS82" s="9"/>
       <c r="AT82" s="10"/>
       <c r="AU82" s="10"/>
@@ -7738,16 +7741,16 @@
       <c r="BK82" s="10"/>
       <c r="BL82" s="11"/>
     </row>
-    <row r="83" spans="2:64" ht="14.4">
-      <c r="B83" s="16"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="18"/>
+    <row r="83" spans="2:64" ht="14.25">
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="15"/>
       <c r="K83" s="4"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -7760,28 +7763,28 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="6"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="17"/>
-      <c r="Y83" s="17"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="17"/>
-      <c r="AB83" s="18"/>
-      <c r="AC83" s="16"/>
-      <c r="AD83" s="17"/>
-      <c r="AE83" s="17"/>
-      <c r="AF83" s="18"/>
-      <c r="AG83" s="16"/>
-      <c r="AH83" s="17"/>
-      <c r="AI83" s="17"/>
-      <c r="AJ83" s="18"/>
-      <c r="AK83" s="16"/>
-      <c r="AL83" s="17"/>
-      <c r="AM83" s="17"/>
-      <c r="AN83" s="18"/>
-      <c r="AO83" s="25"/>
-      <c r="AP83" s="26"/>
-      <c r="AQ83" s="26"/>
-      <c r="AR83" s="27"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="14"/>
+      <c r="Y83" s="14"/>
+      <c r="Z83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="14"/>
+      <c r="AE83" s="14"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="14"/>
+      <c r="AI83" s="14"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="14"/>
+      <c r="AM83" s="14"/>
+      <c r="AN83" s="15"/>
+      <c r="AO83" s="22"/>
+      <c r="AP83" s="23"/>
+      <c r="AQ83" s="23"/>
+      <c r="AR83" s="24"/>
       <c r="AS83" s="4"/>
       <c r="AT83" s="5"/>
       <c r="AU83" s="5"/>
@@ -7803,16 +7806,16 @@
       <c r="BK83" s="5"/>
       <c r="BL83" s="6"/>
     </row>
-    <row r="84" spans="2:64" ht="14.4">
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="21"/>
+    <row r="84" spans="2:64" ht="14.25">
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="18"/>
       <c r="K84" s="7"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -7825,32 +7828,32 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
       <c r="V84" s="8"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="20"/>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="20"/>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="19"/>
-      <c r="AH84" s="20"/>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="19"/>
-      <c r="AL84" s="20"/>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="21"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="18"/>
+      <c r="AC84" s="16"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="18"/>
+      <c r="AG84" s="16"/>
+      <c r="AH84" s="17"/>
+      <c r="AI84" s="17"/>
+      <c r="AJ84" s="18"/>
+      <c r="AK84" s="16"/>
+      <c r="AL84" s="17"/>
+      <c r="AM84" s="17"/>
+      <c r="AN84" s="18"/>
       <c r="AO84" s="7"/>
       <c r="AP84" s="1"/>
       <c r="AQ84" s="1"/>
       <c r="AR84" s="8"/>
-      <c r="AS84" s="28"/>
-      <c r="AT84" s="29"/>
-      <c r="AU84" s="29"/>
-      <c r="AV84" s="30"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="26"/>
+      <c r="AU84" s="26"/>
+      <c r="AV84" s="27"/>
       <c r="AW84" s="7"/>
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
@@ -7869,15 +7872,15 @@
       <c r="BL84" s="8"/>
     </row>
     <row r="85" spans="2:64" ht="15" thickBot="1">
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="24"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
       <c r="K85" s="9"/>
       <c r="L85" s="10"/>
       <c r="M85" s="10"/>
@@ -7890,28 +7893,28 @@
       <c r="T85" s="10"/>
       <c r="U85" s="10"/>
       <c r="V85" s="11"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="23"/>
-      <c r="Z85" s="23"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="24"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="23"/>
-      <c r="AE85" s="23"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="22"/>
-      <c r="AH85" s="23"/>
-      <c r="AI85" s="23"/>
-      <c r="AJ85" s="24"/>
-      <c r="AK85" s="22"/>
-      <c r="AL85" s="23"/>
-      <c r="AM85" s="23"/>
-      <c r="AN85" s="24"/>
-      <c r="AO85" s="13"/>
-      <c r="AP85" s="14"/>
-      <c r="AQ85" s="14"/>
-      <c r="AR85" s="15"/>
+      <c r="W85" s="19"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
+      <c r="AA85" s="20"/>
+      <c r="AB85" s="21"/>
+      <c r="AC85" s="19"/>
+      <c r="AD85" s="20"/>
+      <c r="AE85" s="20"/>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="19"/>
+      <c r="AH85" s="20"/>
+      <c r="AI85" s="20"/>
+      <c r="AJ85" s="21"/>
+      <c r="AK85" s="19"/>
+      <c r="AL85" s="20"/>
+      <c r="AM85" s="20"/>
+      <c r="AN85" s="21"/>
+      <c r="AO85" s="28"/>
+      <c r="AP85" s="29"/>
+      <c r="AQ85" s="29"/>
+      <c r="AR85" s="30"/>
       <c r="AS85" s="9"/>
       <c r="AT85" s="10"/>
       <c r="AU85" s="10"/>
@@ -7933,16 +7936,16 @@
       <c r="BK85" s="10"/>
       <c r="BL85" s="11"/>
     </row>
-    <row r="86" spans="2:64" ht="14.4">
-      <c r="B86" s="16"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="18"/>
+    <row r="86" spans="2:64" ht="14.25">
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="15"/>
       <c r="K86" s="4"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -7955,28 +7958,28 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="17"/>
-      <c r="Y86" s="17"/>
-      <c r="Z86" s="17"/>
-      <c r="AA86" s="17"/>
-      <c r="AB86" s="18"/>
-      <c r="AC86" s="16"/>
-      <c r="AD86" s="17"/>
-      <c r="AE86" s="17"/>
-      <c r="AF86" s="18"/>
-      <c r="AG86" s="16"/>
-      <c r="AH86" s="17"/>
-      <c r="AI86" s="17"/>
-      <c r="AJ86" s="18"/>
-      <c r="AK86" s="16"/>
-      <c r="AL86" s="17"/>
-      <c r="AM86" s="17"/>
-      <c r="AN86" s="18"/>
-      <c r="AO86" s="25"/>
-      <c r="AP86" s="26"/>
-      <c r="AQ86" s="26"/>
-      <c r="AR86" s="27"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="14"/>
+      <c r="Y86" s="14"/>
+      <c r="Z86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="14"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="13"/>
+      <c r="AH86" s="14"/>
+      <c r="AI86" s="14"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="13"/>
+      <c r="AL86" s="14"/>
+      <c r="AM86" s="14"/>
+      <c r="AN86" s="15"/>
+      <c r="AO86" s="22"/>
+      <c r="AP86" s="23"/>
+      <c r="AQ86" s="23"/>
+      <c r="AR86" s="24"/>
       <c r="AS86" s="4"/>
       <c r="AT86" s="5"/>
       <c r="AU86" s="5"/>
@@ -7998,16 +8001,16 @@
       <c r="BK86" s="5"/>
       <c r="BL86" s="6"/>
     </row>
-    <row r="87" spans="2:64" ht="14.4">
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="21"/>
+    <row r="87" spans="2:64" ht="14.25">
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="18"/>
       <c r="K87" s="7"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -8020,32 +8023,32 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="8"/>
-      <c r="W87" s="19"/>
-      <c r="X87" s="20"/>
-      <c r="Y87" s="20"/>
-      <c r="Z87" s="20"/>
-      <c r="AA87" s="20"/>
-      <c r="AB87" s="21"/>
-      <c r="AC87" s="19"/>
-      <c r="AD87" s="20"/>
-      <c r="AE87" s="20"/>
-      <c r="AF87" s="21"/>
-      <c r="AG87" s="19"/>
-      <c r="AH87" s="20"/>
-      <c r="AI87" s="20"/>
-      <c r="AJ87" s="21"/>
-      <c r="AK87" s="19"/>
-      <c r="AL87" s="20"/>
-      <c r="AM87" s="20"/>
-      <c r="AN87" s="21"/>
+      <c r="W87" s="16"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="17"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="17"/>
+      <c r="AB87" s="18"/>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="17"/>
+      <c r="AE87" s="17"/>
+      <c r="AF87" s="18"/>
+      <c r="AG87" s="16"/>
+      <c r="AH87" s="17"/>
+      <c r="AI87" s="17"/>
+      <c r="AJ87" s="18"/>
+      <c r="AK87" s="16"/>
+      <c r="AL87" s="17"/>
+      <c r="AM87" s="17"/>
+      <c r="AN87" s="18"/>
       <c r="AO87" s="7"/>
       <c r="AP87" s="1"/>
       <c r="AQ87" s="1"/>
       <c r="AR87" s="8"/>
-      <c r="AS87" s="28"/>
-      <c r="AT87" s="29"/>
-      <c r="AU87" s="29"/>
-      <c r="AV87" s="30"/>
+      <c r="AS87" s="25"/>
+      <c r="AT87" s="26"/>
+      <c r="AU87" s="26"/>
+      <c r="AV87" s="27"/>
       <c r="AW87" s="7"/>
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
@@ -8064,15 +8067,15 @@
       <c r="BL87" s="8"/>
     </row>
     <row r="88" spans="2:64" ht="15" thickBot="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="24"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
       <c r="K88" s="9"/>
       <c r="L88" s="10"/>
       <c r="M88" s="10"/>
@@ -8085,28 +8088,28 @@
       <c r="T88" s="10"/>
       <c r="U88" s="10"/>
       <c r="V88" s="11"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="23"/>
-      <c r="Y88" s="23"/>
-      <c r="Z88" s="23"/>
-      <c r="AA88" s="23"/>
-      <c r="AB88" s="24"/>
-      <c r="AC88" s="22"/>
-      <c r="AD88" s="23"/>
-      <c r="AE88" s="23"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="22"/>
-      <c r="AH88" s="23"/>
-      <c r="AI88" s="23"/>
-      <c r="AJ88" s="24"/>
-      <c r="AK88" s="22"/>
-      <c r="AL88" s="23"/>
-      <c r="AM88" s="23"/>
-      <c r="AN88" s="24"/>
-      <c r="AO88" s="13"/>
-      <c r="AP88" s="14"/>
-      <c r="AQ88" s="14"/>
-      <c r="AR88" s="15"/>
+      <c r="W88" s="19"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
+      <c r="AA88" s="20"/>
+      <c r="AB88" s="21"/>
+      <c r="AC88" s="19"/>
+      <c r="AD88" s="20"/>
+      <c r="AE88" s="20"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="19"/>
+      <c r="AH88" s="20"/>
+      <c r="AI88" s="20"/>
+      <c r="AJ88" s="21"/>
+      <c r="AK88" s="19"/>
+      <c r="AL88" s="20"/>
+      <c r="AM88" s="20"/>
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="28"/>
+      <c r="AP88" s="29"/>
+      <c r="AQ88" s="29"/>
+      <c r="AR88" s="30"/>
       <c r="AS88" s="9"/>
       <c r="AT88" s="10"/>
       <c r="AU88" s="10"/>
@@ -8128,16 +8131,16 @@
       <c r="BK88" s="10"/>
       <c r="BL88" s="11"/>
     </row>
-    <row r="89" spans="2:64" ht="14.4">
-      <c r="B89" s="16"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="18"/>
+    <row r="89" spans="2:64" ht="14.25">
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="15"/>
       <c r="K89" s="4"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -8150,28 +8153,28 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="6"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="17"/>
-      <c r="AB89" s="18"/>
-      <c r="AC89" s="16"/>
-      <c r="AD89" s="17"/>
-      <c r="AE89" s="17"/>
-      <c r="AF89" s="18"/>
-      <c r="AG89" s="16"/>
-      <c r="AH89" s="17"/>
-      <c r="AI89" s="17"/>
-      <c r="AJ89" s="18"/>
-      <c r="AK89" s="16"/>
-      <c r="AL89" s="17"/>
-      <c r="AM89" s="17"/>
-      <c r="AN89" s="18"/>
-      <c r="AO89" s="25"/>
-      <c r="AP89" s="26"/>
-      <c r="AQ89" s="26"/>
-      <c r="AR89" s="27"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="14"/>
+      <c r="Y89" s="14"/>
+      <c r="Z89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="14"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="14"/>
+      <c r="AI89" s="14"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="13"/>
+      <c r="AL89" s="14"/>
+      <c r="AM89" s="14"/>
+      <c r="AN89" s="15"/>
+      <c r="AO89" s="22"/>
+      <c r="AP89" s="23"/>
+      <c r="AQ89" s="23"/>
+      <c r="AR89" s="24"/>
       <c r="AS89" s="4"/>
       <c r="AT89" s="5"/>
       <c r="AU89" s="5"/>
@@ -8193,16 +8196,16 @@
       <c r="BK89" s="5"/>
       <c r="BL89" s="6"/>
     </row>
-    <row r="90" spans="2:64" ht="14.4">
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="21"/>
+    <row r="90" spans="2:64" ht="14.25">
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
       <c r="K90" s="7"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -8215,32 +8218,32 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
       <c r="V90" s="8"/>
-      <c r="W90" s="19"/>
-      <c r="X90" s="20"/>
-      <c r="Y90" s="20"/>
-      <c r="Z90" s="20"/>
-      <c r="AA90" s="20"/>
-      <c r="AB90" s="21"/>
-      <c r="AC90" s="19"/>
-      <c r="AD90" s="20"/>
-      <c r="AE90" s="20"/>
-      <c r="AF90" s="21"/>
-      <c r="AG90" s="19"/>
-      <c r="AH90" s="20"/>
-      <c r="AI90" s="20"/>
-      <c r="AJ90" s="21"/>
-      <c r="AK90" s="19"/>
-      <c r="AL90" s="20"/>
-      <c r="AM90" s="20"/>
-      <c r="AN90" s="21"/>
+      <c r="W90" s="16"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="18"/>
+      <c r="AC90" s="16"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="16"/>
+      <c r="AH90" s="17"/>
+      <c r="AI90" s="17"/>
+      <c r="AJ90" s="18"/>
+      <c r="AK90" s="16"/>
+      <c r="AL90" s="17"/>
+      <c r="AM90" s="17"/>
+      <c r="AN90" s="18"/>
       <c r="AO90" s="7"/>
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
       <c r="AR90" s="8"/>
-      <c r="AS90" s="28"/>
-      <c r="AT90" s="29"/>
-      <c r="AU90" s="29"/>
-      <c r="AV90" s="30"/>
+      <c r="AS90" s="25"/>
+      <c r="AT90" s="26"/>
+      <c r="AU90" s="26"/>
+      <c r="AV90" s="27"/>
       <c r="AW90" s="7"/>
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
@@ -8259,15 +8262,15 @@
       <c r="BL90" s="8"/>
     </row>
     <row r="91" spans="2:64" ht="15" thickBot="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="24"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
       <c r="K91" s="9"/>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
@@ -8280,28 +8283,28 @@
       <c r="T91" s="10"/>
       <c r="U91" s="10"/>
       <c r="V91" s="11"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="24"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="23"/>
-      <c r="AE91" s="23"/>
-      <c r="AF91" s="24"/>
-      <c r="AG91" s="22"/>
-      <c r="AH91" s="23"/>
-      <c r="AI91" s="23"/>
-      <c r="AJ91" s="24"/>
-      <c r="AK91" s="22"/>
-      <c r="AL91" s="23"/>
-      <c r="AM91" s="23"/>
-      <c r="AN91" s="24"/>
-      <c r="AO91" s="13"/>
-      <c r="AP91" s="14"/>
-      <c r="AQ91" s="14"/>
-      <c r="AR91" s="15"/>
+      <c r="W91" s="19"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
+      <c r="AA91" s="20"/>
+      <c r="AB91" s="21"/>
+      <c r="AC91" s="19"/>
+      <c r="AD91" s="20"/>
+      <c r="AE91" s="20"/>
+      <c r="AF91" s="21"/>
+      <c r="AG91" s="19"/>
+      <c r="AH91" s="20"/>
+      <c r="AI91" s="20"/>
+      <c r="AJ91" s="21"/>
+      <c r="AK91" s="19"/>
+      <c r="AL91" s="20"/>
+      <c r="AM91" s="20"/>
+      <c r="AN91" s="21"/>
+      <c r="AO91" s="28"/>
+      <c r="AP91" s="29"/>
+      <c r="AQ91" s="29"/>
+      <c r="AR91" s="30"/>
       <c r="AS91" s="9"/>
       <c r="AT91" s="10"/>
       <c r="AU91" s="10"/>
@@ -8325,6 +8328,246 @@
     </row>
   </sheetData>
   <mergeCells count="264">
+    <mergeCell ref="AO91:AR91"/>
+    <mergeCell ref="B89:E91"/>
+    <mergeCell ref="F89:J91"/>
+    <mergeCell ref="W89:AB91"/>
+    <mergeCell ref="AC89:AF91"/>
+    <mergeCell ref="AG89:AJ91"/>
+    <mergeCell ref="AK89:AN91"/>
+    <mergeCell ref="AO89:AR89"/>
+    <mergeCell ref="AS90:AV90"/>
+    <mergeCell ref="AS84:AV84"/>
+    <mergeCell ref="B86:E88"/>
+    <mergeCell ref="F86:J88"/>
+    <mergeCell ref="W86:AB88"/>
+    <mergeCell ref="AC86:AF88"/>
+    <mergeCell ref="AG86:AJ88"/>
+    <mergeCell ref="AK86:AN88"/>
+    <mergeCell ref="AO86:AR86"/>
+    <mergeCell ref="AS87:AV87"/>
+    <mergeCell ref="AO85:AR85"/>
+    <mergeCell ref="AO88:AR88"/>
+    <mergeCell ref="B83:E85"/>
+    <mergeCell ref="F83:J85"/>
+    <mergeCell ref="W83:AB85"/>
+    <mergeCell ref="AC83:AF85"/>
+    <mergeCell ref="AG83:AJ85"/>
+    <mergeCell ref="AK83:AN85"/>
+    <mergeCell ref="AO83:AR83"/>
+    <mergeCell ref="AS78:AV78"/>
+    <mergeCell ref="B80:E82"/>
+    <mergeCell ref="F80:J82"/>
+    <mergeCell ref="W80:AB82"/>
+    <mergeCell ref="AC80:AF82"/>
+    <mergeCell ref="AG80:AJ82"/>
+    <mergeCell ref="AK80:AN82"/>
+    <mergeCell ref="AO80:AR80"/>
+    <mergeCell ref="AS81:AV81"/>
+    <mergeCell ref="AO79:AR79"/>
+    <mergeCell ref="AO82:AR82"/>
+    <mergeCell ref="B77:E79"/>
+    <mergeCell ref="F77:J79"/>
+    <mergeCell ref="W77:AB79"/>
+    <mergeCell ref="AC77:AF79"/>
+    <mergeCell ref="AG77:AJ79"/>
+    <mergeCell ref="AK77:AN79"/>
+    <mergeCell ref="AO77:AR77"/>
+    <mergeCell ref="AC71:AF73"/>
+    <mergeCell ref="AG71:AJ73"/>
+    <mergeCell ref="AK71:AN73"/>
+    <mergeCell ref="AO71:AR71"/>
+    <mergeCell ref="AS72:AV72"/>
+    <mergeCell ref="B74:E76"/>
+    <mergeCell ref="F74:J76"/>
+    <mergeCell ref="W74:AB76"/>
+    <mergeCell ref="AC74:AF76"/>
+    <mergeCell ref="AG74:AJ76"/>
+    <mergeCell ref="AK74:AN76"/>
+    <mergeCell ref="AO74:AR74"/>
+    <mergeCell ref="AS75:AV75"/>
+    <mergeCell ref="AO73:AR73"/>
+    <mergeCell ref="AO76:AR76"/>
+    <mergeCell ref="B71:E73"/>
+    <mergeCell ref="F71:J73"/>
+    <mergeCell ref="W71:AB73"/>
+    <mergeCell ref="X1:AN3"/>
+    <mergeCell ref="AK8:AN9"/>
+    <mergeCell ref="AO8:AV9"/>
+    <mergeCell ref="AW8:BD9"/>
+    <mergeCell ref="BE8:BL9"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="B68:E70"/>
+    <mergeCell ref="F68:J70"/>
+    <mergeCell ref="W68:AB70"/>
+    <mergeCell ref="AC68:AF70"/>
+    <mergeCell ref="AG68:AJ70"/>
+    <mergeCell ref="AK68:AN70"/>
+    <mergeCell ref="AO68:AR68"/>
+    <mergeCell ref="AS69:AV69"/>
+    <mergeCell ref="AO61:AR61"/>
+    <mergeCell ref="AO64:AR64"/>
+    <mergeCell ref="AO67:AR67"/>
+    <mergeCell ref="AO70:AR70"/>
+    <mergeCell ref="BI10:BL10"/>
+    <mergeCell ref="D4:I5"/>
+    <mergeCell ref="N6:T7"/>
+    <mergeCell ref="V6:AB7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:J9"/>
+    <mergeCell ref="W8:AB9"/>
+    <mergeCell ref="AC8:AF9"/>
+    <mergeCell ref="AG8:AJ9"/>
+    <mergeCell ref="J4:T5"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AW10:AZ10"/>
+    <mergeCell ref="BA10:BD10"/>
+    <mergeCell ref="BE10:BH10"/>
+    <mergeCell ref="AK11:AN13"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="B14:E16"/>
+    <mergeCell ref="F14:J16"/>
+    <mergeCell ref="W14:AB16"/>
+    <mergeCell ref="AC14:AF16"/>
+    <mergeCell ref="AG14:AJ16"/>
+    <mergeCell ref="AK14:AN16"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AS15:AV15"/>
+    <mergeCell ref="B11:E13"/>
+    <mergeCell ref="F11:J13"/>
+    <mergeCell ref="W11:AB13"/>
+    <mergeCell ref="AC11:AF13"/>
+    <mergeCell ref="AG11:AJ13"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AK17:AN19"/>
+    <mergeCell ref="AO17:AR17"/>
+    <mergeCell ref="AS18:AV18"/>
+    <mergeCell ref="B20:E22"/>
+    <mergeCell ref="F20:J22"/>
+    <mergeCell ref="W20:AB22"/>
+    <mergeCell ref="AC20:AF22"/>
+    <mergeCell ref="AG20:AJ22"/>
+    <mergeCell ref="AK20:AN22"/>
+    <mergeCell ref="AO20:AR20"/>
+    <mergeCell ref="AS21:AV21"/>
+    <mergeCell ref="B17:E19"/>
+    <mergeCell ref="F17:J19"/>
+    <mergeCell ref="W17:AB19"/>
+    <mergeCell ref="AC17:AF19"/>
+    <mergeCell ref="AG17:AJ19"/>
+    <mergeCell ref="AO19:AR19"/>
+    <mergeCell ref="AO22:AR22"/>
+    <mergeCell ref="AK23:AN25"/>
+    <mergeCell ref="AO23:AR23"/>
+    <mergeCell ref="AS24:AV24"/>
+    <mergeCell ref="B26:E28"/>
+    <mergeCell ref="F26:J28"/>
+    <mergeCell ref="W26:AB28"/>
+    <mergeCell ref="AC26:AF28"/>
+    <mergeCell ref="AG26:AJ28"/>
+    <mergeCell ref="AK26:AN28"/>
+    <mergeCell ref="AO26:AR26"/>
+    <mergeCell ref="AS27:AV27"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="F23:J25"/>
+    <mergeCell ref="W23:AB25"/>
+    <mergeCell ref="AC23:AF25"/>
+    <mergeCell ref="AG23:AJ25"/>
+    <mergeCell ref="AO25:AR25"/>
+    <mergeCell ref="AO28:AR28"/>
+    <mergeCell ref="AK29:AN31"/>
+    <mergeCell ref="AO29:AR29"/>
+    <mergeCell ref="AS30:AV30"/>
+    <mergeCell ref="B32:E34"/>
+    <mergeCell ref="F32:J34"/>
+    <mergeCell ref="W32:AB34"/>
+    <mergeCell ref="AC32:AF34"/>
+    <mergeCell ref="AG32:AJ34"/>
+    <mergeCell ref="AK32:AN34"/>
+    <mergeCell ref="AO32:AR32"/>
+    <mergeCell ref="AS33:AV33"/>
+    <mergeCell ref="B29:E31"/>
+    <mergeCell ref="F29:J31"/>
+    <mergeCell ref="W29:AB31"/>
+    <mergeCell ref="AC29:AF31"/>
+    <mergeCell ref="AG29:AJ31"/>
+    <mergeCell ref="AO31:AR31"/>
+    <mergeCell ref="AO34:AR34"/>
+    <mergeCell ref="AK35:AN37"/>
+    <mergeCell ref="AO35:AR35"/>
+    <mergeCell ref="AS36:AV36"/>
+    <mergeCell ref="B38:E40"/>
+    <mergeCell ref="F38:J40"/>
+    <mergeCell ref="W38:AB40"/>
+    <mergeCell ref="AC38:AF40"/>
+    <mergeCell ref="AG38:AJ40"/>
+    <mergeCell ref="AK38:AN40"/>
+    <mergeCell ref="AO38:AR38"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="B35:E37"/>
+    <mergeCell ref="F35:J37"/>
+    <mergeCell ref="W35:AB37"/>
+    <mergeCell ref="AC35:AF37"/>
+    <mergeCell ref="AG35:AJ37"/>
+    <mergeCell ref="AO40:AR40"/>
+    <mergeCell ref="AO37:AR37"/>
+    <mergeCell ref="AK41:AN43"/>
+    <mergeCell ref="AO41:AR41"/>
+    <mergeCell ref="AS42:AV42"/>
+    <mergeCell ref="B44:E46"/>
+    <mergeCell ref="F44:J46"/>
+    <mergeCell ref="W44:AB46"/>
+    <mergeCell ref="AC44:AF46"/>
+    <mergeCell ref="AG44:AJ46"/>
+    <mergeCell ref="AK44:AN46"/>
+    <mergeCell ref="AO44:AR44"/>
+    <mergeCell ref="AS45:AV45"/>
+    <mergeCell ref="B41:E43"/>
+    <mergeCell ref="F41:J43"/>
+    <mergeCell ref="W41:AB43"/>
+    <mergeCell ref="AC41:AF43"/>
+    <mergeCell ref="AG41:AJ43"/>
+    <mergeCell ref="AO43:AR43"/>
+    <mergeCell ref="AO46:AR46"/>
+    <mergeCell ref="AK47:AN49"/>
+    <mergeCell ref="AO47:AR47"/>
+    <mergeCell ref="AS48:AV48"/>
+    <mergeCell ref="B50:E52"/>
+    <mergeCell ref="F50:J52"/>
+    <mergeCell ref="W50:AB52"/>
+    <mergeCell ref="AC50:AF52"/>
+    <mergeCell ref="AG50:AJ52"/>
+    <mergeCell ref="AK50:AN52"/>
+    <mergeCell ref="AO50:AR50"/>
+    <mergeCell ref="AS51:AV51"/>
+    <mergeCell ref="B47:E49"/>
+    <mergeCell ref="F47:J49"/>
+    <mergeCell ref="W47:AB49"/>
+    <mergeCell ref="AC47:AF49"/>
+    <mergeCell ref="AG47:AJ49"/>
+    <mergeCell ref="AO49:AR49"/>
+    <mergeCell ref="AO52:AR52"/>
+    <mergeCell ref="AK53:AN55"/>
+    <mergeCell ref="AO53:AR53"/>
+    <mergeCell ref="AS54:AV54"/>
+    <mergeCell ref="B56:E58"/>
+    <mergeCell ref="F56:J58"/>
+    <mergeCell ref="W56:AB58"/>
+    <mergeCell ref="AC56:AF58"/>
+    <mergeCell ref="AG56:AJ58"/>
+    <mergeCell ref="AK56:AN58"/>
+    <mergeCell ref="AO56:AR56"/>
+    <mergeCell ref="AS57:AV57"/>
+    <mergeCell ref="B53:E55"/>
+    <mergeCell ref="F53:J55"/>
+    <mergeCell ref="W53:AB55"/>
+    <mergeCell ref="AC53:AF55"/>
+    <mergeCell ref="AG53:AJ55"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AO58:AR58"/>
     <mergeCell ref="AK65:AN67"/>
     <mergeCell ref="AO65:AR65"/>
     <mergeCell ref="AS66:AV66"/>
@@ -8349,249 +8592,9 @@
     <mergeCell ref="W59:AB61"/>
     <mergeCell ref="AC59:AF61"/>
     <mergeCell ref="AG59:AJ61"/>
-    <mergeCell ref="AK53:AN55"/>
-    <mergeCell ref="AO53:AR53"/>
-    <mergeCell ref="AS54:AV54"/>
-    <mergeCell ref="B56:E58"/>
-    <mergeCell ref="F56:J58"/>
-    <mergeCell ref="W56:AB58"/>
-    <mergeCell ref="AC56:AF58"/>
-    <mergeCell ref="AG56:AJ58"/>
-    <mergeCell ref="AK56:AN58"/>
-    <mergeCell ref="AO56:AR56"/>
-    <mergeCell ref="AS57:AV57"/>
-    <mergeCell ref="B53:E55"/>
-    <mergeCell ref="F53:J55"/>
-    <mergeCell ref="W53:AB55"/>
-    <mergeCell ref="AC53:AF55"/>
-    <mergeCell ref="AG53:AJ55"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AO58:AR58"/>
-    <mergeCell ref="AK47:AN49"/>
-    <mergeCell ref="AO47:AR47"/>
-    <mergeCell ref="AS48:AV48"/>
-    <mergeCell ref="B50:E52"/>
-    <mergeCell ref="F50:J52"/>
-    <mergeCell ref="W50:AB52"/>
-    <mergeCell ref="AC50:AF52"/>
-    <mergeCell ref="AG50:AJ52"/>
-    <mergeCell ref="AK50:AN52"/>
-    <mergeCell ref="AO50:AR50"/>
-    <mergeCell ref="AS51:AV51"/>
-    <mergeCell ref="B47:E49"/>
-    <mergeCell ref="F47:J49"/>
-    <mergeCell ref="W47:AB49"/>
-    <mergeCell ref="AC47:AF49"/>
-    <mergeCell ref="AG47:AJ49"/>
-    <mergeCell ref="AO49:AR49"/>
-    <mergeCell ref="AO52:AR52"/>
-    <mergeCell ref="AK41:AN43"/>
-    <mergeCell ref="AO41:AR41"/>
-    <mergeCell ref="AS42:AV42"/>
-    <mergeCell ref="B44:E46"/>
-    <mergeCell ref="F44:J46"/>
-    <mergeCell ref="W44:AB46"/>
-    <mergeCell ref="AC44:AF46"/>
-    <mergeCell ref="AG44:AJ46"/>
-    <mergeCell ref="AK44:AN46"/>
-    <mergeCell ref="AO44:AR44"/>
-    <mergeCell ref="AS45:AV45"/>
-    <mergeCell ref="B41:E43"/>
-    <mergeCell ref="F41:J43"/>
-    <mergeCell ref="W41:AB43"/>
-    <mergeCell ref="AC41:AF43"/>
-    <mergeCell ref="AG41:AJ43"/>
-    <mergeCell ref="AO43:AR43"/>
-    <mergeCell ref="AO46:AR46"/>
-    <mergeCell ref="AK35:AN37"/>
-    <mergeCell ref="AO35:AR35"/>
-    <mergeCell ref="AS36:AV36"/>
-    <mergeCell ref="B38:E40"/>
-    <mergeCell ref="F38:J40"/>
-    <mergeCell ref="W38:AB40"/>
-    <mergeCell ref="AC38:AF40"/>
-    <mergeCell ref="AG38:AJ40"/>
-    <mergeCell ref="AK38:AN40"/>
-    <mergeCell ref="AO38:AR38"/>
-    <mergeCell ref="AS39:AV39"/>
-    <mergeCell ref="B35:E37"/>
-    <mergeCell ref="F35:J37"/>
-    <mergeCell ref="W35:AB37"/>
-    <mergeCell ref="AC35:AF37"/>
-    <mergeCell ref="AG35:AJ37"/>
-    <mergeCell ref="AO40:AR40"/>
-    <mergeCell ref="AO37:AR37"/>
-    <mergeCell ref="AK29:AN31"/>
-    <mergeCell ref="AO29:AR29"/>
-    <mergeCell ref="AS30:AV30"/>
-    <mergeCell ref="B32:E34"/>
-    <mergeCell ref="F32:J34"/>
-    <mergeCell ref="W32:AB34"/>
-    <mergeCell ref="AC32:AF34"/>
-    <mergeCell ref="AG32:AJ34"/>
-    <mergeCell ref="AK32:AN34"/>
-    <mergeCell ref="AO32:AR32"/>
-    <mergeCell ref="AS33:AV33"/>
-    <mergeCell ref="B29:E31"/>
-    <mergeCell ref="F29:J31"/>
-    <mergeCell ref="W29:AB31"/>
-    <mergeCell ref="AC29:AF31"/>
-    <mergeCell ref="AG29:AJ31"/>
-    <mergeCell ref="AO31:AR31"/>
-    <mergeCell ref="AO34:AR34"/>
-    <mergeCell ref="AK23:AN25"/>
-    <mergeCell ref="AO23:AR23"/>
-    <mergeCell ref="AS24:AV24"/>
-    <mergeCell ref="B26:E28"/>
-    <mergeCell ref="F26:J28"/>
-    <mergeCell ref="W26:AB28"/>
-    <mergeCell ref="AC26:AF28"/>
-    <mergeCell ref="AG26:AJ28"/>
-    <mergeCell ref="AK26:AN28"/>
-    <mergeCell ref="AO26:AR26"/>
-    <mergeCell ref="AS27:AV27"/>
-    <mergeCell ref="B23:E25"/>
-    <mergeCell ref="F23:J25"/>
-    <mergeCell ref="W23:AB25"/>
-    <mergeCell ref="AC23:AF25"/>
-    <mergeCell ref="AG23:AJ25"/>
-    <mergeCell ref="AO25:AR25"/>
-    <mergeCell ref="AO28:AR28"/>
-    <mergeCell ref="AK17:AN19"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="B20:E22"/>
-    <mergeCell ref="F20:J22"/>
-    <mergeCell ref="W20:AB22"/>
-    <mergeCell ref="AC20:AF22"/>
-    <mergeCell ref="AG20:AJ22"/>
-    <mergeCell ref="AK20:AN22"/>
-    <mergeCell ref="AO20:AR20"/>
-    <mergeCell ref="AS21:AV21"/>
-    <mergeCell ref="B17:E19"/>
-    <mergeCell ref="F17:J19"/>
-    <mergeCell ref="W17:AB19"/>
-    <mergeCell ref="AC17:AF19"/>
-    <mergeCell ref="AG17:AJ19"/>
-    <mergeCell ref="AO19:AR19"/>
-    <mergeCell ref="AO22:AR22"/>
-    <mergeCell ref="AK11:AN13"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="B14:E16"/>
-    <mergeCell ref="F14:J16"/>
-    <mergeCell ref="W14:AB16"/>
-    <mergeCell ref="AC14:AF16"/>
-    <mergeCell ref="AG14:AJ16"/>
-    <mergeCell ref="AK14:AN16"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="B11:E13"/>
-    <mergeCell ref="F11:J13"/>
-    <mergeCell ref="W11:AB13"/>
-    <mergeCell ref="AC11:AF13"/>
-    <mergeCell ref="AG11:AJ13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="W8:AB9"/>
-    <mergeCell ref="AC8:AF9"/>
-    <mergeCell ref="AG8:AJ9"/>
-    <mergeCell ref="J4:T5"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AW10:AZ10"/>
-    <mergeCell ref="BA10:BD10"/>
-    <mergeCell ref="BE10:BH10"/>
-    <mergeCell ref="X1:AN3"/>
-    <mergeCell ref="AK8:AN9"/>
-    <mergeCell ref="AO8:AV9"/>
-    <mergeCell ref="AW8:BD9"/>
-    <mergeCell ref="BE8:BL9"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="B68:E70"/>
-    <mergeCell ref="F68:J70"/>
-    <mergeCell ref="W68:AB70"/>
-    <mergeCell ref="AC68:AF70"/>
-    <mergeCell ref="AG68:AJ70"/>
-    <mergeCell ref="AK68:AN70"/>
-    <mergeCell ref="AO68:AR68"/>
-    <mergeCell ref="AS69:AV69"/>
-    <mergeCell ref="AO61:AR61"/>
-    <mergeCell ref="AO64:AR64"/>
-    <mergeCell ref="AO67:AR67"/>
-    <mergeCell ref="AO70:AR70"/>
-    <mergeCell ref="BI10:BL10"/>
-    <mergeCell ref="D4:I5"/>
-    <mergeCell ref="N6:T7"/>
-    <mergeCell ref="V6:AB7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:J9"/>
-    <mergeCell ref="AC71:AF73"/>
-    <mergeCell ref="AG71:AJ73"/>
-    <mergeCell ref="AK71:AN73"/>
-    <mergeCell ref="AO71:AR71"/>
-    <mergeCell ref="AS72:AV72"/>
-    <mergeCell ref="B74:E76"/>
-    <mergeCell ref="F74:J76"/>
-    <mergeCell ref="W74:AB76"/>
-    <mergeCell ref="AC74:AF76"/>
-    <mergeCell ref="AG74:AJ76"/>
-    <mergeCell ref="AK74:AN76"/>
-    <mergeCell ref="AO74:AR74"/>
-    <mergeCell ref="AS75:AV75"/>
-    <mergeCell ref="AO73:AR73"/>
-    <mergeCell ref="AO76:AR76"/>
-    <mergeCell ref="B71:E73"/>
-    <mergeCell ref="F71:J73"/>
-    <mergeCell ref="W71:AB73"/>
-    <mergeCell ref="AS78:AV78"/>
-    <mergeCell ref="B80:E82"/>
-    <mergeCell ref="F80:J82"/>
-    <mergeCell ref="W80:AB82"/>
-    <mergeCell ref="AC80:AF82"/>
-    <mergeCell ref="AG80:AJ82"/>
-    <mergeCell ref="AK80:AN82"/>
-    <mergeCell ref="AO80:AR80"/>
-    <mergeCell ref="AS81:AV81"/>
-    <mergeCell ref="AO79:AR79"/>
-    <mergeCell ref="AO82:AR82"/>
-    <mergeCell ref="B77:E79"/>
-    <mergeCell ref="F77:J79"/>
-    <mergeCell ref="W77:AB79"/>
-    <mergeCell ref="AC77:AF79"/>
-    <mergeCell ref="AG77:AJ79"/>
-    <mergeCell ref="AK77:AN79"/>
-    <mergeCell ref="AO77:AR77"/>
-    <mergeCell ref="AS84:AV84"/>
-    <mergeCell ref="B86:E88"/>
-    <mergeCell ref="F86:J88"/>
-    <mergeCell ref="W86:AB88"/>
-    <mergeCell ref="AC86:AF88"/>
-    <mergeCell ref="AG86:AJ88"/>
-    <mergeCell ref="AK86:AN88"/>
-    <mergeCell ref="AO86:AR86"/>
-    <mergeCell ref="AS87:AV87"/>
-    <mergeCell ref="AO85:AR85"/>
-    <mergeCell ref="AO88:AR88"/>
-    <mergeCell ref="B83:E85"/>
-    <mergeCell ref="F83:J85"/>
-    <mergeCell ref="W83:AB85"/>
-    <mergeCell ref="AC83:AF85"/>
-    <mergeCell ref="AG83:AJ85"/>
-    <mergeCell ref="AK83:AN85"/>
-    <mergeCell ref="AO83:AR83"/>
-    <mergeCell ref="AO91:AR91"/>
-    <mergeCell ref="B89:E91"/>
-    <mergeCell ref="F89:J91"/>
-    <mergeCell ref="W89:AB91"/>
-    <mergeCell ref="AC89:AF91"/>
-    <mergeCell ref="AG89:AJ91"/>
-    <mergeCell ref="AK89:AN91"/>
-    <mergeCell ref="AO89:AR89"/>
-    <mergeCell ref="AS90:AV90"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.59055118110236204" bottom="0.59055118110236204" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>